--- a/Bin/resource/excel/NPC.xlsx
+++ b/Bin/resource/excel/NPC.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cpp\ARK\Bin\Server\DataConfig\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\opensource\ARK.net_header\Bin\resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="27525" windowHeight="17535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="27525" windowHeight="17535" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DataNode_1" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,10 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,8 +32,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Item" type="4" refreshedVersion="2" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Item" type="4" refreshedVersion="2" background="1" saveData="1">
     <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Item.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
@@ -1245,16 +1245,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -1266,148 +1259,20 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1416,38 +1281,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1472,7 +1307,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7">
-    <tableStyle name="MySqlDefault" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1816,19 +1651,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="D95" sqref="D95"/>
+      <selection pane="bottomLeft" activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.875" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
@@ -1842,753 +1677,753 @@
     <col min="14" max="14" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" t="s">
         <v>34</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" t="s">
         <v>32</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" t="s">
         <v>35</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" t="s">
         <v>32</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Y2" t="s">
         <v>32</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="Z2" t="s">
         <v>32</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AA2" t="s">
         <v>32</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AB2" t="s">
         <v>33</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AC2" t="s">
         <v>33</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AD2" t="s">
         <v>35</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AE2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="b">
+      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" t="b">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="b">
+      <c r="D3" t="b">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="b">
+      <c r="E3" t="b">
         <v>1</v>
       </c>
-      <c r="F3" s="2" t="b">
+      <c r="F3" t="b">
         <v>1</v>
       </c>
-      <c r="G3" s="2" t="b">
+      <c r="G3" t="b">
         <v>1</v>
       </c>
-      <c r="H3" s="2" t="b">
+      <c r="H3" t="b">
         <v>1</v>
       </c>
-      <c r="I3" s="2" t="b">
+      <c r="I3" t="b">
         <v>1</v>
       </c>
-      <c r="J3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="R3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="S3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="T3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="U3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="V3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="W3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="X3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="2" t="b">
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="b">
+        <v>0</v>
+      </c>
+      <c r="R3" t="b">
+        <v>0</v>
+      </c>
+      <c r="S3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="b">
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" t="b">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="b">
+      <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="b">
+      <c r="E4" t="b">
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="b">
+      <c r="F4" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="2" t="b">
+      <c r="G4" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="2" t="b">
+      <c r="H4" t="b">
         <v>1</v>
       </c>
-      <c r="I4" s="2" t="b">
+      <c r="I4" t="b">
         <v>1</v>
       </c>
-      <c r="J4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="R4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="S4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="T4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="U4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="V4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="W4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="X4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="2" t="b">
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="b">
+        <v>0</v>
+      </c>
+      <c r="R4" t="b">
+        <v>0</v>
+      </c>
+      <c r="S4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T4" t="b">
+        <v>0</v>
+      </c>
+      <c r="U4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V4" t="b">
+        <v>0</v>
+      </c>
+      <c r="W4" t="b">
+        <v>0</v>
+      </c>
+      <c r="X4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="b">
         <v>1</v>
       </c>
-      <c r="AD4" s="2" t="b">
+      <c r="AD4" t="b">
         <v>1</v>
       </c>
-      <c r="AE4" s="2" t="b">
+      <c r="AE4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="b">
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" t="b">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="b">
+      <c r="D5" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="2" t="b">
+      <c r="E5" t="b">
         <v>1</v>
       </c>
-      <c r="F5" s="2" t="b">
+      <c r="F5" t="b">
         <v>1</v>
       </c>
-      <c r="G5" s="2" t="b">
+      <c r="G5" t="b">
         <v>1</v>
       </c>
-      <c r="H5" s="2" t="b">
+      <c r="H5" t="b">
         <v>1</v>
       </c>
-      <c r="I5" s="2" t="b">
+      <c r="I5" t="b">
         <v>1</v>
       </c>
-      <c r="J5" s="2" t="b">
+      <c r="J5" t="b">
         <v>1</v>
       </c>
-      <c r="K5" s="2" t="b">
+      <c r="K5" t="b">
         <v>1</v>
       </c>
-      <c r="L5" s="2" t="b">
+      <c r="L5" t="b">
         <v>1</v>
       </c>
-      <c r="M5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="R5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="S5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="T5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="U5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="V5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="W5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="X5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="2" t="b">
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5" t="b">
+        <v>0</v>
+      </c>
+      <c r="U5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V5" t="b">
+        <v>0</v>
+      </c>
+      <c r="W5" t="b">
+        <v>0</v>
+      </c>
+      <c r="X5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="b">
         <v>1</v>
       </c>
-      <c r="AD5" s="2" t="b">
+      <c r="AD5" t="b">
         <v>1</v>
       </c>
-      <c r="AE5" s="2" t="b">
+      <c r="AE5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="R6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="S6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="T6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="U6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="V6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="W6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="X6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="2" t="b">
+      <c r="B6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6" t="b">
+        <v>0</v>
+      </c>
+      <c r="T6" t="b">
+        <v>0</v>
+      </c>
+      <c r="U6" t="b">
+        <v>0</v>
+      </c>
+      <c r="V6" t="b">
+        <v>0</v>
+      </c>
+      <c r="W6" t="b">
+        <v>0</v>
+      </c>
+      <c r="X6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="R7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="S7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="T7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="U7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="V7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="W7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="X7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="3" t="b">
+      <c r="B7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="b">
+        <v>0</v>
+      </c>
+      <c r="R7" t="b">
+        <v>0</v>
+      </c>
+      <c r="S7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T7" t="b">
+        <v>0</v>
+      </c>
+      <c r="U7" t="b">
+        <v>0</v>
+      </c>
+      <c r="V7" t="b">
+        <v>0</v>
+      </c>
+      <c r="W7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" s="4" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" t="s">
         <v>49</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="O8" t="s">
         <v>50</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="P8" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="Q8" t="s">
         <v>52</v>
       </c>
-      <c r="R8" s="4" t="s">
+      <c r="R8" t="s">
         <v>53</v>
       </c>
-      <c r="S8" s="4" t="s">
+      <c r="S8" t="s">
         <v>54</v>
       </c>
-      <c r="T8" s="4" t="s">
+      <c r="T8" t="s">
         <v>55</v>
       </c>
-      <c r="U8" s="4" t="s">
+      <c r="U8" t="s">
         <v>56</v>
       </c>
-      <c r="V8" s="4" t="s">
+      <c r="V8" t="s">
         <v>57</v>
       </c>
-      <c r="W8" s="4" t="s">
+      <c r="W8" t="s">
         <v>58</v>
       </c>
-      <c r="X8" s="4" t="s">
+      <c r="X8" t="s">
         <v>59</v>
       </c>
-      <c r="Y8" s="4" t="s">
+      <c r="Y8" t="s">
         <v>60</v>
       </c>
-      <c r="Z8" s="4" t="s">
+      <c r="Z8" t="s">
         <v>61</v>
       </c>
-      <c r="AA8" s="4" t="s">
+      <c r="AA8" t="s">
         <v>62</v>
       </c>
-      <c r="AB8" s="4" t="s">
+      <c r="AB8" t="s">
         <v>63</v>
       </c>
-      <c r="AC8" s="4" t="s">
+      <c r="AC8" t="s">
         <v>64</v>
       </c>
-      <c r="AD8" s="4" t="s">
+      <c r="AD8" t="s">
         <v>65</v>
       </c>
-      <c r="AE8" s="4" t="s">
+      <c r="AE8" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
+      <c r="A9" t="s">
         <v>67</v>
       </c>
       <c r="C9">
@@ -2642,7 +2477,7 @@
       <c r="T9">
         <v>2</v>
       </c>
-      <c r="U9" s="9" t="s">
+      <c r="U9" t="s">
         <v>70</v>
       </c>
       <c r="V9" t="s">
@@ -2654,13 +2489,13 @@
       <c r="X9" t="s">
         <v>72</v>
       </c>
-      <c r="Y9" s="9" t="s">
+      <c r="Y9" t="s">
         <v>73</v>
       </c>
       <c r="Z9" t="s">
         <v>74</v>
       </c>
-      <c r="AA9" s="10" t="s">
+      <c r="AA9" t="s">
         <v>75</v>
       </c>
       <c r="AB9">
@@ -2677,7 +2512,7 @@
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A10" s="9" t="s">
+      <c r="A10" t="s">
         <v>76</v>
       </c>
       <c r="C10">
@@ -2731,7 +2566,7 @@
       <c r="T10">
         <v>2</v>
       </c>
-      <c r="U10" s="9" t="s">
+      <c r="U10" t="s">
         <v>78</v>
       </c>
       <c r="V10" t="s">
@@ -2743,13 +2578,13 @@
       <c r="X10" t="s">
         <v>79</v>
       </c>
-      <c r="Y10" s="9" t="s">
+      <c r="Y10" t="s">
         <v>73</v>
       </c>
       <c r="Z10" t="s">
         <v>74</v>
       </c>
-      <c r="AA10" s="10" t="s">
+      <c r="AA10" t="s">
         <v>75</v>
       </c>
       <c r="AB10">
@@ -2766,7 +2601,7 @@
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A11" s="9" t="s">
+      <c r="A11" t="s">
         <v>80</v>
       </c>
       <c r="C11">
@@ -2820,7 +2655,7 @@
       <c r="T11">
         <v>2</v>
       </c>
-      <c r="U11" s="9" t="s">
+      <c r="U11" t="s">
         <v>82</v>
       </c>
       <c r="V11" t="s">
@@ -2832,13 +2667,13 @@
       <c r="X11" t="s">
         <v>83</v>
       </c>
-      <c r="Y11" s="9" t="s">
+      <c r="Y11" t="s">
         <v>73</v>
       </c>
       <c r="Z11" t="s">
         <v>74</v>
       </c>
-      <c r="AA11" s="10" t="s">
+      <c r="AA11" t="s">
         <v>75</v>
       </c>
       <c r="AB11">
@@ -2855,7 +2690,7 @@
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A12" s="9" t="s">
+      <c r="A12" t="s">
         <v>84</v>
       </c>
       <c r="C12">
@@ -2909,7 +2744,7 @@
       <c r="T12">
         <v>2</v>
       </c>
-      <c r="U12" s="9" t="s">
+      <c r="U12" t="s">
         <v>86</v>
       </c>
       <c r="V12" t="s">
@@ -2921,13 +2756,13 @@
       <c r="X12" t="s">
         <v>87</v>
       </c>
-      <c r="Y12" s="9" t="s">
+      <c r="Y12" t="s">
         <v>73</v>
       </c>
       <c r="Z12" t="s">
         <v>74</v>
       </c>
-      <c r="AA12" s="10" t="s">
+      <c r="AA12" t="s">
         <v>75</v>
       </c>
       <c r="AB12">
@@ -2944,7 +2779,7 @@
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A13" s="9" t="s">
+      <c r="A13" t="s">
         <v>88</v>
       </c>
       <c r="C13">
@@ -2998,7 +2833,7 @@
       <c r="T13">
         <v>2</v>
       </c>
-      <c r="U13" s="9" t="s">
+      <c r="U13" t="s">
         <v>90</v>
       </c>
       <c r="V13" t="s">
@@ -3010,13 +2845,13 @@
       <c r="X13" t="s">
         <v>91</v>
       </c>
-      <c r="Y13" s="9" t="s">
+      <c r="Y13" t="s">
         <v>73</v>
       </c>
       <c r="Z13" t="s">
         <v>74</v>
       </c>
-      <c r="AA13" s="10" t="s">
+      <c r="AA13" t="s">
         <v>75</v>
       </c>
       <c r="AB13">
@@ -3033,7 +2868,7 @@
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A14" s="9" t="s">
+      <c r="A14" t="s">
         <v>92</v>
       </c>
       <c r="C14">
@@ -3087,7 +2922,7 @@
       <c r="T14">
         <v>2</v>
       </c>
-      <c r="U14" s="9" t="s">
+      <c r="U14" t="s">
         <v>94</v>
       </c>
       <c r="V14" t="s">
@@ -3099,13 +2934,13 @@
       <c r="X14" t="s">
         <v>95</v>
       </c>
-      <c r="Y14" s="9" t="s">
+      <c r="Y14" t="s">
         <v>73</v>
       </c>
       <c r="Z14" t="s">
         <v>74</v>
       </c>
-      <c r="AA14" s="10" t="s">
+      <c r="AA14" t="s">
         <v>75</v>
       </c>
       <c r="AB14">
@@ -3122,7 +2957,7 @@
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A15" s="9" t="s">
+      <c r="A15" t="s">
         <v>96</v>
       </c>
       <c r="C15">
@@ -3176,7 +3011,7 @@
       <c r="T15">
         <v>2</v>
       </c>
-      <c r="U15" s="9" t="s">
+      <c r="U15" t="s">
         <v>98</v>
       </c>
       <c r="V15" t="s">
@@ -3188,13 +3023,13 @@
       <c r="X15" t="s">
         <v>99</v>
       </c>
-      <c r="Y15" s="9" t="s">
+      <c r="Y15" t="s">
         <v>73</v>
       </c>
       <c r="Z15" t="s">
         <v>74</v>
       </c>
-      <c r="AA15" s="10" t="s">
+      <c r="AA15" t="s">
         <v>75</v>
       </c>
       <c r="AB15">
@@ -3211,7 +3046,7 @@
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A16" s="9" t="s">
+      <c r="A16" t="s">
         <v>100</v>
       </c>
       <c r="C16">
@@ -3265,7 +3100,7 @@
       <c r="T16">
         <v>2</v>
       </c>
-      <c r="U16" s="9" t="s">
+      <c r="U16" t="s">
         <v>101</v>
       </c>
       <c r="V16" t="s">
@@ -3277,13 +3112,13 @@
       <c r="X16" t="s">
         <v>102</v>
       </c>
-      <c r="Y16" s="9" t="s">
+      <c r="Y16" t="s">
         <v>73</v>
       </c>
       <c r="Z16" t="s">
         <v>74</v>
       </c>
-      <c r="AA16" s="10" t="s">
+      <c r="AA16" t="s">
         <v>75</v>
       </c>
       <c r="AB16">
@@ -3300,7 +3135,7 @@
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A17" s="9" t="s">
+      <c r="A17" t="s">
         <v>103</v>
       </c>
       <c r="C17">
@@ -3354,7 +3189,7 @@
       <c r="T17">
         <v>2</v>
       </c>
-      <c r="U17" s="9" t="s">
+      <c r="U17" t="s">
         <v>104</v>
       </c>
       <c r="V17" t="s">
@@ -3366,13 +3201,13 @@
       <c r="X17" t="s">
         <v>105</v>
       </c>
-      <c r="Y17" s="9" t="s">
+      <c r="Y17" t="s">
         <v>73</v>
       </c>
       <c r="Z17" t="s">
         <v>74</v>
       </c>
-      <c r="AA17" s="10" t="s">
+      <c r="AA17" t="s">
         <v>75</v>
       </c>
       <c r="AB17">
@@ -3389,7 +3224,7 @@
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A18" s="9" t="s">
+      <c r="A18" t="s">
         <v>106</v>
       </c>
       <c r="C18">
@@ -3443,7 +3278,7 @@
       <c r="T18">
         <v>2</v>
       </c>
-      <c r="U18" s="9" t="s">
+      <c r="U18" t="s">
         <v>107</v>
       </c>
       <c r="V18" t="s">
@@ -3455,13 +3290,13 @@
       <c r="X18" t="s">
         <v>108</v>
       </c>
-      <c r="Y18" s="9" t="s">
+      <c r="Y18" t="s">
         <v>73</v>
       </c>
       <c r="Z18" t="s">
         <v>74</v>
       </c>
-      <c r="AA18" s="10" t="s">
+      <c r="AA18" t="s">
         <v>75</v>
       </c>
       <c r="AB18">
@@ -3478,7 +3313,7 @@
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A19" s="9" t="s">
+      <c r="A19" t="s">
         <v>109</v>
       </c>
       <c r="C19">
@@ -3532,7 +3367,7 @@
       <c r="T19">
         <v>2</v>
       </c>
-      <c r="U19" s="9" t="s">
+      <c r="U19" t="s">
         <v>110</v>
       </c>
       <c r="V19" t="s">
@@ -3544,13 +3379,13 @@
       <c r="X19" t="s">
         <v>111</v>
       </c>
-      <c r="Y19" s="9" t="s">
+      <c r="Y19" t="s">
         <v>73</v>
       </c>
       <c r="Z19" t="s">
         <v>74</v>
       </c>
-      <c r="AA19" s="10" t="s">
+      <c r="AA19" t="s">
         <v>75</v>
       </c>
       <c r="AB19">
@@ -3567,7 +3402,7 @@
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A20" s="9" t="s">
+      <c r="A20" t="s">
         <v>112</v>
       </c>
       <c r="C20">
@@ -3621,7 +3456,7 @@
       <c r="T20">
         <v>2</v>
       </c>
-      <c r="U20" s="9" t="s">
+      <c r="U20" t="s">
         <v>113</v>
       </c>
       <c r="V20" t="s">
@@ -3633,13 +3468,13 @@
       <c r="X20" t="s">
         <v>114</v>
       </c>
-      <c r="Y20" s="9" t="s">
+      <c r="Y20" t="s">
         <v>73</v>
       </c>
       <c r="Z20" t="s">
         <v>74</v>
       </c>
-      <c r="AA20" s="10" t="s">
+      <c r="AA20" t="s">
         <v>75</v>
       </c>
       <c r="AB20">
@@ -3656,7 +3491,7 @@
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A21" s="9" t="s">
+      <c r="A21" t="s">
         <v>115</v>
       </c>
       <c r="C21">
@@ -3710,7 +3545,7 @@
       <c r="T21">
         <v>2</v>
       </c>
-      <c r="U21" s="9" t="s">
+      <c r="U21" t="s">
         <v>116</v>
       </c>
       <c r="V21" t="s">
@@ -3722,13 +3557,13 @@
       <c r="X21" t="s">
         <v>117</v>
       </c>
-      <c r="Y21" s="9" t="s">
+      <c r="Y21" t="s">
         <v>73</v>
       </c>
       <c r="Z21" t="s">
         <v>74</v>
       </c>
-      <c r="AA21" s="10" t="s">
+      <c r="AA21" t="s">
         <v>75</v>
       </c>
       <c r="AB21">
@@ -3745,7 +3580,7 @@
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A22" s="9" t="s">
+      <c r="A22" t="s">
         <v>118</v>
       </c>
       <c r="C22">
@@ -3799,7 +3634,7 @@
       <c r="T22">
         <v>2</v>
       </c>
-      <c r="U22" s="9" t="s">
+      <c r="U22" t="s">
         <v>119</v>
       </c>
       <c r="V22" t="s">
@@ -3811,13 +3646,13 @@
       <c r="X22" t="s">
         <v>120</v>
       </c>
-      <c r="Y22" s="9" t="s">
+      <c r="Y22" t="s">
         <v>73</v>
       </c>
       <c r="Z22" t="s">
         <v>74</v>
       </c>
-      <c r="AA22" s="10" t="s">
+      <c r="AA22" t="s">
         <v>75</v>
       </c>
       <c r="AB22">
@@ -3834,7 +3669,7 @@
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A23" s="9" t="s">
+      <c r="A23" t="s">
         <v>121</v>
       </c>
       <c r="C23">
@@ -3888,7 +3723,7 @@
       <c r="T23">
         <v>2</v>
       </c>
-      <c r="U23" s="9" t="s">
+      <c r="U23" t="s">
         <v>122</v>
       </c>
       <c r="V23" t="s">
@@ -3900,13 +3735,13 @@
       <c r="X23" t="s">
         <v>123</v>
       </c>
-      <c r="Y23" s="9" t="s">
+      <c r="Y23" t="s">
         <v>73</v>
       </c>
       <c r="Z23" t="s">
         <v>74</v>
       </c>
-      <c r="AA23" s="10" t="s">
+      <c r="AA23" t="s">
         <v>75</v>
       </c>
       <c r="AB23">
@@ -3923,7 +3758,7 @@
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A24" s="9" t="s">
+      <c r="A24" t="s">
         <v>124</v>
       </c>
       <c r="C24">
@@ -3977,7 +3812,7 @@
       <c r="T24">
         <v>2</v>
       </c>
-      <c r="U24" s="9" t="s">
+      <c r="U24" t="s">
         <v>125</v>
       </c>
       <c r="V24" t="s">
@@ -3989,13 +3824,13 @@
       <c r="X24" t="s">
         <v>126</v>
       </c>
-      <c r="Y24" s="9" t="s">
+      <c r="Y24" t="s">
         <v>73</v>
       </c>
       <c r="Z24" t="s">
         <v>74</v>
       </c>
-      <c r="AA24" s="10" t="s">
+      <c r="AA24" t="s">
         <v>75</v>
       </c>
       <c r="AB24">
@@ -4012,7 +3847,7 @@
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A25" s="9" t="s">
+      <c r="A25" t="s">
         <v>127</v>
       </c>
       <c r="C25">
@@ -4066,7 +3901,7 @@
       <c r="T25">
         <v>2</v>
       </c>
-      <c r="U25" s="9" t="s">
+      <c r="U25" t="s">
         <v>128</v>
       </c>
       <c r="V25" t="s">
@@ -4078,13 +3913,13 @@
       <c r="X25" t="s">
         <v>129</v>
       </c>
-      <c r="Y25" s="9" t="s">
+      <c r="Y25" t="s">
         <v>73</v>
       </c>
       <c r="Z25" t="s">
         <v>74</v>
       </c>
-      <c r="AA25" s="10" t="s">
+      <c r="AA25" t="s">
         <v>75</v>
       </c>
       <c r="AB25">
@@ -4101,7 +3936,7 @@
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A26" s="9" t="s">
+      <c r="A26" t="s">
         <v>130</v>
       </c>
       <c r="C26">
@@ -4155,7 +3990,7 @@
       <c r="T26">
         <v>2</v>
       </c>
-      <c r="U26" s="9" t="s">
+      <c r="U26" t="s">
         <v>131</v>
       </c>
       <c r="V26" t="s">
@@ -4167,13 +4002,13 @@
       <c r="X26" t="s">
         <v>132</v>
       </c>
-      <c r="Y26" s="9" t="s">
+      <c r="Y26" t="s">
         <v>73</v>
       </c>
       <c r="Z26" t="s">
         <v>74</v>
       </c>
-      <c r="AA26" s="10" t="s">
+      <c r="AA26" t="s">
         <v>75</v>
       </c>
       <c r="AB26">
@@ -4190,7 +4025,7 @@
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A27" s="9" t="s">
+      <c r="A27" t="s">
         <v>133</v>
       </c>
       <c r="C27">
@@ -4244,7 +4079,7 @@
       <c r="T27">
         <v>2</v>
       </c>
-      <c r="U27" s="9" t="s">
+      <c r="U27" t="s">
         <v>134</v>
       </c>
       <c r="V27" t="s">
@@ -4256,13 +4091,13 @@
       <c r="X27" t="s">
         <v>135</v>
       </c>
-      <c r="Y27" s="9" t="s">
+      <c r="Y27" t="s">
         <v>73</v>
       </c>
       <c r="Z27" t="s">
         <v>74</v>
       </c>
-      <c r="AA27" s="10" t="s">
+      <c r="AA27" t="s">
         <v>75</v>
       </c>
       <c r="AB27">
@@ -4279,7 +4114,7 @@
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A28" s="9" t="s">
+      <c r="A28" t="s">
         <v>136</v>
       </c>
       <c r="C28">
@@ -4333,7 +4168,7 @@
       <c r="T28">
         <v>2</v>
       </c>
-      <c r="U28" s="9" t="s">
+      <c r="U28" t="s">
         <v>137</v>
       </c>
       <c r="V28" t="s">
@@ -4345,13 +4180,13 @@
       <c r="X28" t="s">
         <v>138</v>
       </c>
-      <c r="Y28" s="9" t="s">
+      <c r="Y28" t="s">
         <v>73</v>
       </c>
       <c r="Z28" t="s">
         <v>74</v>
       </c>
-      <c r="AA28" s="10" t="s">
+      <c r="AA28" t="s">
         <v>75</v>
       </c>
       <c r="AB28">
@@ -4422,7 +4257,7 @@
       <c r="T29">
         <v>2</v>
       </c>
-      <c r="U29" s="9" t="s">
+      <c r="U29" t="s">
         <v>141</v>
       </c>
       <c r="V29" t="s">
@@ -4434,13 +4269,13 @@
       <c r="X29" t="s">
         <v>142</v>
       </c>
-      <c r="Y29" s="9" t="s">
+      <c r="Y29" t="s">
         <v>73</v>
       </c>
       <c r="Z29" t="s">
         <v>74</v>
       </c>
-      <c r="AA29" s="10" t="s">
+      <c r="AA29" t="s">
         <v>75</v>
       </c>
       <c r="AB29">
@@ -4511,7 +4346,7 @@
       <c r="T30">
         <v>2</v>
       </c>
-      <c r="U30" s="9" t="s">
+      <c r="U30" t="s">
         <v>145</v>
       </c>
       <c r="V30" t="s">
@@ -4523,13 +4358,13 @@
       <c r="X30" t="s">
         <v>146</v>
       </c>
-      <c r="Y30" s="9" t="s">
+      <c r="Y30" t="s">
         <v>73</v>
       </c>
       <c r="Z30" t="s">
         <v>74</v>
       </c>
-      <c r="AA30" s="10" t="s">
+      <c r="AA30" t="s">
         <v>75</v>
       </c>
       <c r="AB30">
@@ -4600,7 +4435,7 @@
       <c r="T31">
         <v>2</v>
       </c>
-      <c r="U31" s="9" t="s">
+      <c r="U31" t="s">
         <v>149</v>
       </c>
       <c r="V31" t="s">
@@ -4612,13 +4447,13 @@
       <c r="X31" t="s">
         <v>150</v>
       </c>
-      <c r="Y31" s="9" t="s">
+      <c r="Y31" t="s">
         <v>73</v>
       </c>
       <c r="Z31" t="s">
         <v>74</v>
       </c>
-      <c r="AA31" s="10" t="s">
+      <c r="AA31" t="s">
         <v>75</v>
       </c>
       <c r="AB31">
@@ -4689,7 +4524,7 @@
       <c r="T32">
         <v>2</v>
       </c>
-      <c r="U32" s="9" t="s">
+      <c r="U32" t="s">
         <v>153</v>
       </c>
       <c r="V32" t="s">
@@ -4701,13 +4536,13 @@
       <c r="X32" t="s">
         <v>154</v>
       </c>
-      <c r="Y32" s="9" t="s">
+      <c r="Y32" t="s">
         <v>73</v>
       </c>
       <c r="Z32" t="s">
         <v>74</v>
       </c>
-      <c r="AA32" s="10" t="s">
+      <c r="AA32" t="s">
         <v>75</v>
       </c>
       <c r="AB32">
@@ -4778,7 +4613,7 @@
       <c r="T33">
         <v>2</v>
       </c>
-      <c r="U33" s="9" t="s">
+      <c r="U33" t="s">
         <v>157</v>
       </c>
       <c r="V33" t="s">
@@ -4790,13 +4625,13 @@
       <c r="X33" t="s">
         <v>158</v>
       </c>
-      <c r="Y33" s="9" t="s">
+      <c r="Y33" t="s">
         <v>73</v>
       </c>
       <c r="Z33" t="s">
         <v>74</v>
       </c>
-      <c r="AA33" s="10" t="s">
+      <c r="AA33" t="s">
         <v>75</v>
       </c>
       <c r="AB33">
@@ -4867,7 +4702,7 @@
       <c r="T34">
         <v>2</v>
       </c>
-      <c r="U34" s="9" t="s">
+      <c r="U34" t="s">
         <v>161</v>
       </c>
       <c r="V34" t="s">
@@ -4879,13 +4714,13 @@
       <c r="X34" t="s">
         <v>162</v>
       </c>
-      <c r="Y34" s="9" t="s">
+      <c r="Y34" t="s">
         <v>73</v>
       </c>
       <c r="Z34" t="s">
         <v>74</v>
       </c>
-      <c r="AA34" s="10" t="s">
+      <c r="AA34" t="s">
         <v>75</v>
       </c>
       <c r="AB34">
@@ -4956,7 +4791,7 @@
       <c r="T35">
         <v>2</v>
       </c>
-      <c r="U35" s="9" t="s">
+      <c r="U35" t="s">
         <v>165</v>
       </c>
       <c r="V35" t="s">
@@ -4968,13 +4803,13 @@
       <c r="X35" t="s">
         <v>166</v>
       </c>
-      <c r="Y35" s="9" t="s">
+      <c r="Y35" t="s">
         <v>73</v>
       </c>
       <c r="Z35" t="s">
         <v>74</v>
       </c>
-      <c r="AA35" s="10" t="s">
+      <c r="AA35" t="s">
         <v>75</v>
       </c>
       <c r="AB35">
@@ -5045,7 +4880,7 @@
       <c r="T36">
         <v>2</v>
       </c>
-      <c r="U36" s="9" t="s">
+      <c r="U36" t="s">
         <v>169</v>
       </c>
       <c r="V36" t="s">
@@ -5057,13 +4892,13 @@
       <c r="X36" t="s">
         <v>170</v>
       </c>
-      <c r="Y36" s="9" t="s">
+      <c r="Y36" t="s">
         <v>73</v>
       </c>
       <c r="Z36" t="s">
         <v>74</v>
       </c>
-      <c r="AA36" s="10" t="s">
+      <c r="AA36" t="s">
         <v>75</v>
       </c>
       <c r="AB36">
@@ -5134,7 +4969,7 @@
       <c r="T37">
         <v>2</v>
       </c>
-      <c r="U37" s="9" t="s">
+      <c r="U37" t="s">
         <v>173</v>
       </c>
       <c r="V37" t="s">
@@ -5146,13 +4981,13 @@
       <c r="X37" t="s">
         <v>174</v>
       </c>
-      <c r="Y37" s="9" t="s">
+      <c r="Y37" t="s">
         <v>73</v>
       </c>
       <c r="Z37" t="s">
         <v>74</v>
       </c>
-      <c r="AA37" s="10" t="s">
+      <c r="AA37" t="s">
         <v>75</v>
       </c>
       <c r="AB37">
@@ -5223,7 +5058,7 @@
       <c r="T38">
         <v>2</v>
       </c>
-      <c r="U38" s="9" t="s">
+      <c r="U38" t="s">
         <v>177</v>
       </c>
       <c r="V38" t="s">
@@ -5235,13 +5070,13 @@
       <c r="X38" t="s">
         <v>178</v>
       </c>
-      <c r="Y38" s="9" t="s">
+      <c r="Y38" t="s">
         <v>73</v>
       </c>
       <c r="Z38" t="s">
         <v>74</v>
       </c>
-      <c r="AA38" s="10" t="s">
+      <c r="AA38" t="s">
         <v>75</v>
       </c>
       <c r="AB38">
@@ -5312,7 +5147,7 @@
       <c r="T39">
         <v>2</v>
       </c>
-      <c r="U39" s="9" t="s">
+      <c r="U39" t="s">
         <v>181</v>
       </c>
       <c r="V39" t="s">
@@ -5324,13 +5159,13 @@
       <c r="X39" t="s">
         <v>182</v>
       </c>
-      <c r="Y39" s="9" t="s">
+      <c r="Y39" t="s">
         <v>73</v>
       </c>
       <c r="Z39" t="s">
         <v>74</v>
       </c>
-      <c r="AA39" s="10" t="s">
+      <c r="AA39" t="s">
         <v>75</v>
       </c>
       <c r="AB39">
@@ -5401,7 +5236,7 @@
       <c r="T40">
         <v>2</v>
       </c>
-      <c r="U40" s="9" t="s">
+      <c r="U40" t="s">
         <v>185</v>
       </c>
       <c r="V40" t="s">
@@ -5413,13 +5248,13 @@
       <c r="X40" t="s">
         <v>186</v>
       </c>
-      <c r="Y40" s="9" t="s">
+      <c r="Y40" t="s">
         <v>73</v>
       </c>
       <c r="Z40" t="s">
         <v>74</v>
       </c>
-      <c r="AA40" s="10" t="s">
+      <c r="AA40" t="s">
         <v>75</v>
       </c>
       <c r="AB40">
@@ -5490,7 +5325,7 @@
       <c r="T41">
         <v>2</v>
       </c>
-      <c r="U41" s="9" t="s">
+      <c r="U41" t="s">
         <v>189</v>
       </c>
       <c r="V41" t="s">
@@ -5502,13 +5337,13 @@
       <c r="X41" t="s">
         <v>190</v>
       </c>
-      <c r="Y41" s="9" t="s">
+      <c r="Y41" t="s">
         <v>73</v>
       </c>
       <c r="Z41" t="s">
         <v>74</v>
       </c>
-      <c r="AA41" s="10" t="s">
+      <c r="AA41" t="s">
         <v>75</v>
       </c>
       <c r="AB41">
@@ -5579,7 +5414,7 @@
       <c r="T42">
         <v>2</v>
       </c>
-      <c r="U42" s="9" t="s">
+      <c r="U42" t="s">
         <v>193</v>
       </c>
       <c r="V42" t="s">
@@ -5591,13 +5426,13 @@
       <c r="X42" t="s">
         <v>194</v>
       </c>
-      <c r="Y42" s="9" t="s">
+      <c r="Y42" t="s">
         <v>73</v>
       </c>
       <c r="Z42" t="s">
         <v>74</v>
       </c>
-      <c r="AA42" s="10" t="s">
+      <c r="AA42" t="s">
         <v>75</v>
       </c>
       <c r="AB42">
@@ -5668,7 +5503,7 @@
       <c r="T43">
         <v>2</v>
       </c>
-      <c r="U43" s="9" t="s">
+      <c r="U43" t="s">
         <v>197</v>
       </c>
       <c r="V43" t="s">
@@ -5680,13 +5515,13 @@
       <c r="X43" t="s">
         <v>198</v>
       </c>
-      <c r="Y43" s="9" t="s">
+      <c r="Y43" t="s">
         <v>73</v>
       </c>
       <c r="Z43" t="s">
         <v>74</v>
       </c>
-      <c r="AA43" s="10" t="s">
+      <c r="AA43" t="s">
         <v>75</v>
       </c>
       <c r="AB43">
@@ -5757,7 +5592,7 @@
       <c r="T44">
         <v>2</v>
       </c>
-      <c r="U44" s="9" t="s">
+      <c r="U44" t="s">
         <v>201</v>
       </c>
       <c r="V44" t="s">
@@ -5769,13 +5604,13 @@
       <c r="X44" t="s">
         <v>202</v>
       </c>
-      <c r="Y44" s="9" t="s">
+      <c r="Y44" t="s">
         <v>73</v>
       </c>
       <c r="Z44" t="s">
         <v>74</v>
       </c>
-      <c r="AA44" s="10" t="s">
+      <c r="AA44" t="s">
         <v>75</v>
       </c>
       <c r="AB44">
@@ -5846,7 +5681,7 @@
       <c r="T45">
         <v>2</v>
       </c>
-      <c r="U45" s="9" t="s">
+      <c r="U45" t="s">
         <v>205</v>
       </c>
       <c r="V45" t="s">
@@ -5858,13 +5693,13 @@
       <c r="X45" t="s">
         <v>206</v>
       </c>
-      <c r="Y45" s="9" t="s">
+      <c r="Y45" t="s">
         <v>73</v>
       </c>
       <c r="Z45" t="s">
         <v>74</v>
       </c>
-      <c r="AA45" s="10" t="s">
+      <c r="AA45" t="s">
         <v>75</v>
       </c>
       <c r="AB45">
@@ -5935,7 +5770,7 @@
       <c r="T46">
         <v>2</v>
       </c>
-      <c r="U46" s="9" t="s">
+      <c r="U46" t="s">
         <v>209</v>
       </c>
       <c r="V46" t="s">
@@ -5947,13 +5782,13 @@
       <c r="X46" t="s">
         <v>210</v>
       </c>
-      <c r="Y46" s="9" t="s">
+      <c r="Y46" t="s">
         <v>73</v>
       </c>
       <c r="Z46" t="s">
         <v>74</v>
       </c>
-      <c r="AA46" s="10" t="s">
+      <c r="AA46" t="s">
         <v>75</v>
       </c>
       <c r="AB46">
@@ -6024,7 +5859,7 @@
       <c r="T47">
         <v>2</v>
       </c>
-      <c r="U47" s="9" t="s">
+      <c r="U47" t="s">
         <v>213</v>
       </c>
       <c r="V47" t="s">
@@ -6036,13 +5871,13 @@
       <c r="X47" t="s">
         <v>214</v>
       </c>
-      <c r="Y47" s="9" t="s">
+      <c r="Y47" t="s">
         <v>73</v>
       </c>
       <c r="Z47" t="s">
         <v>74</v>
       </c>
-      <c r="AA47" s="10" t="s">
+      <c r="AA47" t="s">
         <v>75</v>
       </c>
       <c r="AB47">
@@ -6113,7 +5948,7 @@
       <c r="T48">
         <v>2</v>
       </c>
-      <c r="U48" s="9" t="s">
+      <c r="U48" t="s">
         <v>217</v>
       </c>
       <c r="V48" t="s">
@@ -6125,13 +5960,13 @@
       <c r="X48" t="s">
         <v>218</v>
       </c>
-      <c r="Y48" s="9" t="s">
+      <c r="Y48" t="s">
         <v>73</v>
       </c>
       <c r="Z48" t="s">
         <v>74</v>
       </c>
-      <c r="AA48" s="10" t="s">
+      <c r="AA48" t="s">
         <v>75</v>
       </c>
       <c r="AB48">
@@ -6202,7 +6037,7 @@
       <c r="T49">
         <v>2</v>
       </c>
-      <c r="U49" s="9" t="s">
+      <c r="U49" t="s">
         <v>221</v>
       </c>
       <c r="V49" t="s">
@@ -6214,13 +6049,13 @@
       <c r="X49" t="s">
         <v>222</v>
       </c>
-      <c r="Y49" s="9" t="s">
+      <c r="Y49" t="s">
         <v>73</v>
       </c>
       <c r="Z49" t="s">
         <v>74</v>
       </c>
-      <c r="AA49" s="10" t="s">
+      <c r="AA49" t="s">
         <v>75</v>
       </c>
       <c r="AB49">
@@ -6291,7 +6126,7 @@
       <c r="T50">
         <v>2</v>
       </c>
-      <c r="U50" s="9" t="s">
+      <c r="U50" t="s">
         <v>225</v>
       </c>
       <c r="V50" t="s">
@@ -6303,13 +6138,13 @@
       <c r="X50" t="s">
         <v>226</v>
       </c>
-      <c r="Y50" s="9" t="s">
+      <c r="Y50" t="s">
         <v>73</v>
       </c>
       <c r="Z50" t="s">
         <v>74</v>
       </c>
-      <c r="AA50" s="10" t="s">
+      <c r="AA50" t="s">
         <v>75</v>
       </c>
       <c r="AB50">
@@ -6380,7 +6215,7 @@
       <c r="T51">
         <v>2</v>
       </c>
-      <c r="U51" s="9" t="s">
+      <c r="U51" t="s">
         <v>229</v>
       </c>
       <c r="V51" t="s">
@@ -6392,13 +6227,13 @@
       <c r="X51" t="s">
         <v>230</v>
       </c>
-      <c r="Y51" s="9" t="s">
+      <c r="Y51" t="s">
         <v>73</v>
       </c>
       <c r="Z51" t="s">
         <v>74</v>
       </c>
-      <c r="AA51" s="10" t="s">
+      <c r="AA51" t="s">
         <v>75</v>
       </c>
       <c r="AB51">
@@ -6469,7 +6304,7 @@
       <c r="T52">
         <v>2</v>
       </c>
-      <c r="U52" s="9" t="s">
+      <c r="U52" t="s">
         <v>233</v>
       </c>
       <c r="V52" t="s">
@@ -6481,13 +6316,13 @@
       <c r="X52" t="s">
         <v>234</v>
       </c>
-      <c r="Y52" s="9" t="s">
+      <c r="Y52" t="s">
         <v>73</v>
       </c>
       <c r="Z52" t="s">
         <v>74</v>
       </c>
-      <c r="AA52" s="10" t="s">
+      <c r="AA52" t="s">
         <v>75</v>
       </c>
       <c r="AB52">
@@ -6558,7 +6393,7 @@
       <c r="T53">
         <v>2</v>
       </c>
-      <c r="U53" s="9" t="s">
+      <c r="U53" t="s">
         <v>237</v>
       </c>
       <c r="V53" t="s">
@@ -6570,13 +6405,13 @@
       <c r="X53" t="s">
         <v>238</v>
       </c>
-      <c r="Y53" s="9" t="s">
+      <c r="Y53" t="s">
         <v>73</v>
       </c>
       <c r="Z53" t="s">
         <v>74</v>
       </c>
-      <c r="AA53" s="10" t="s">
+      <c r="AA53" t="s">
         <v>75</v>
       </c>
       <c r="AB53">
@@ -6647,7 +6482,7 @@
       <c r="T54">
         <v>2</v>
       </c>
-      <c r="U54" s="9" t="s">
+      <c r="U54" t="s">
         <v>241</v>
       </c>
       <c r="V54" t="s">
@@ -6659,13 +6494,13 @@
       <c r="X54" t="s">
         <v>242</v>
       </c>
-      <c r="Y54" s="9" t="s">
+      <c r="Y54" t="s">
         <v>73</v>
       </c>
       <c r="Z54" t="s">
         <v>74</v>
       </c>
-      <c r="AA54" s="10" t="s">
+      <c r="AA54" t="s">
         <v>75</v>
       </c>
       <c r="AB54">
@@ -6736,7 +6571,7 @@
       <c r="T55">
         <v>2</v>
       </c>
-      <c r="U55" s="9" t="s">
+      <c r="U55" t="s">
         <v>245</v>
       </c>
       <c r="V55" t="s">
@@ -6748,13 +6583,13 @@
       <c r="X55" t="s">
         <v>246</v>
       </c>
-      <c r="Y55" s="9" t="s">
+      <c r="Y55" t="s">
         <v>73</v>
       </c>
       <c r="Z55" t="s">
         <v>74</v>
       </c>
-      <c r="AA55" s="10" t="s">
+      <c r="AA55" t="s">
         <v>75</v>
       </c>
       <c r="AB55">
@@ -6825,7 +6660,7 @@
       <c r="T56">
         <v>2</v>
       </c>
-      <c r="U56" s="9" t="s">
+      <c r="U56" t="s">
         <v>249</v>
       </c>
       <c r="V56" t="s">
@@ -6837,13 +6672,13 @@
       <c r="X56" t="s">
         <v>250</v>
       </c>
-      <c r="Y56" s="9" t="s">
+      <c r="Y56" t="s">
         <v>73</v>
       </c>
       <c r="Z56" t="s">
         <v>74</v>
       </c>
-      <c r="AA56" s="10" t="s">
+      <c r="AA56" t="s">
         <v>75</v>
       </c>
       <c r="AB56">
@@ -6914,7 +6749,7 @@
       <c r="T57">
         <v>2</v>
       </c>
-      <c r="U57" s="9" t="s">
+      <c r="U57" t="s">
         <v>253</v>
       </c>
       <c r="V57" t="s">
@@ -6926,13 +6761,13 @@
       <c r="X57" t="s">
         <v>254</v>
       </c>
-      <c r="Y57" s="9" t="s">
+      <c r="Y57" t="s">
         <v>73</v>
       </c>
       <c r="Z57" t="s">
         <v>74</v>
       </c>
-      <c r="AA57" s="10" t="s">
+      <c r="AA57" t="s">
         <v>75</v>
       </c>
       <c r="AB57">
@@ -7003,7 +6838,7 @@
       <c r="T58">
         <v>2</v>
       </c>
-      <c r="U58" s="9" t="s">
+      <c r="U58" t="s">
         <v>257</v>
       </c>
       <c r="V58" t="s">
@@ -7015,13 +6850,13 @@
       <c r="X58" t="s">
         <v>258</v>
       </c>
-      <c r="Y58" s="9" t="s">
+      <c r="Y58" t="s">
         <v>73</v>
       </c>
       <c r="Z58" t="s">
         <v>74</v>
       </c>
-      <c r="AA58" s="10" t="s">
+      <c r="AA58" t="s">
         <v>75</v>
       </c>
       <c r="AB58">
@@ -7092,7 +6927,7 @@
       <c r="T59">
         <v>2</v>
       </c>
-      <c r="U59" s="9" t="s">
+      <c r="U59" t="s">
         <v>261</v>
       </c>
       <c r="V59" t="s">
@@ -7104,13 +6939,13 @@
       <c r="X59" t="s">
         <v>262</v>
       </c>
-      <c r="Y59" s="9" t="s">
+      <c r="Y59" t="s">
         <v>73</v>
       </c>
       <c r="Z59" t="s">
         <v>74</v>
       </c>
-      <c r="AA59" s="10" t="s">
+      <c r="AA59" t="s">
         <v>75</v>
       </c>
       <c r="AB59">
@@ -7181,7 +7016,7 @@
       <c r="T60">
         <v>2</v>
       </c>
-      <c r="U60" s="9" t="s">
+      <c r="U60" t="s">
         <v>265</v>
       </c>
       <c r="V60" t="s">
@@ -7193,13 +7028,13 @@
       <c r="X60" t="s">
         <v>266</v>
       </c>
-      <c r="Y60" s="9" t="s">
+      <c r="Y60" t="s">
         <v>73</v>
       </c>
       <c r="Z60" t="s">
         <v>74</v>
       </c>
-      <c r="AA60" s="10" t="s">
+      <c r="AA60" t="s">
         <v>75</v>
       </c>
       <c r="AB60">
@@ -7270,7 +7105,7 @@
       <c r="T61">
         <v>2</v>
       </c>
-      <c r="U61" s="9" t="s">
+      <c r="U61" t="s">
         <v>265</v>
       </c>
       <c r="V61" t="s">
@@ -7282,13 +7117,13 @@
       <c r="X61" t="s">
         <v>269</v>
       </c>
-      <c r="Y61" s="9" t="s">
+      <c r="Y61" t="s">
         <v>73</v>
       </c>
       <c r="Z61" t="s">
         <v>74</v>
       </c>
-      <c r="AA61" s="10" t="s">
+      <c r="AA61" t="s">
         <v>75</v>
       </c>
       <c r="AB61">
@@ -7359,7 +7194,7 @@
       <c r="T62">
         <v>2</v>
       </c>
-      <c r="U62" s="9" t="s">
+      <c r="U62" t="s">
         <v>265</v>
       </c>
       <c r="V62" t="s">
@@ -7371,13 +7206,13 @@
       <c r="X62" t="s">
         <v>272</v>
       </c>
-      <c r="Y62" s="9" t="s">
+      <c r="Y62" t="s">
         <v>73</v>
       </c>
       <c r="Z62" t="s">
         <v>74</v>
       </c>
-      <c r="AA62" s="10" t="s">
+      <c r="AA62" t="s">
         <v>75</v>
       </c>
       <c r="AB62">
@@ -7448,7 +7283,7 @@
       <c r="T63">
         <v>2</v>
       </c>
-      <c r="U63" s="9" t="s">
+      <c r="U63" t="s">
         <v>265</v>
       </c>
       <c r="V63" t="s">
@@ -7460,13 +7295,13 @@
       <c r="X63" t="s">
         <v>275</v>
       </c>
-      <c r="Y63" s="9" t="s">
+      <c r="Y63" t="s">
         <v>73</v>
       </c>
       <c r="Z63" t="s">
         <v>74</v>
       </c>
-      <c r="AA63" s="10" t="s">
+      <c r="AA63" t="s">
         <v>75</v>
       </c>
       <c r="AB63">
@@ -7537,7 +7372,7 @@
       <c r="T64">
         <v>2</v>
       </c>
-      <c r="U64" s="9" t="s">
+      <c r="U64" t="s">
         <v>265</v>
       </c>
       <c r="V64" t="s">
@@ -7549,13 +7384,13 @@
       <c r="X64" t="s">
         <v>278</v>
       </c>
-      <c r="Y64" s="9" t="s">
+      <c r="Y64" t="s">
         <v>73</v>
       </c>
       <c r="Z64" t="s">
         <v>74</v>
       </c>
-      <c r="AA64" s="10" t="s">
+      <c r="AA64" t="s">
         <v>75</v>
       </c>
       <c r="AB64">
@@ -7626,7 +7461,7 @@
       <c r="T65">
         <v>2</v>
       </c>
-      <c r="U65" s="9" t="s">
+      <c r="U65" t="s">
         <v>265</v>
       </c>
       <c r="V65" t="s">
@@ -7638,13 +7473,13 @@
       <c r="X65" t="s">
         <v>281</v>
       </c>
-      <c r="Y65" s="9" t="s">
+      <c r="Y65" t="s">
         <v>73</v>
       </c>
       <c r="Z65" t="s">
         <v>74</v>
       </c>
-      <c r="AA65" s="10" t="s">
+      <c r="AA65" t="s">
         <v>75</v>
       </c>
       <c r="AB65">
@@ -7715,7 +7550,7 @@
       <c r="T66">
         <v>2</v>
       </c>
-      <c r="U66" s="9" t="s">
+      <c r="U66" t="s">
         <v>265</v>
       </c>
       <c r="V66" t="s">
@@ -7727,13 +7562,13 @@
       <c r="X66" t="s">
         <v>284</v>
       </c>
-      <c r="Y66" s="9" t="s">
+      <c r="Y66" t="s">
         <v>73</v>
       </c>
       <c r="Z66" t="s">
         <v>74</v>
       </c>
-      <c r="AA66" s="10" t="s">
+      <c r="AA66" t="s">
         <v>75</v>
       </c>
       <c r="AB66">
@@ -7804,7 +7639,7 @@
       <c r="T67">
         <v>2</v>
       </c>
-      <c r="U67" s="9" t="s">
+      <c r="U67" t="s">
         <v>265</v>
       </c>
       <c r="V67" t="s">
@@ -7816,13 +7651,13 @@
       <c r="X67" t="s">
         <v>287</v>
       </c>
-      <c r="Y67" s="9" t="s">
+      <c r="Y67" t="s">
         <v>73</v>
       </c>
       <c r="Z67" t="s">
         <v>74</v>
       </c>
-      <c r="AA67" s="10" t="s">
+      <c r="AA67" t="s">
         <v>75</v>
       </c>
       <c r="AB67">
@@ -7893,7 +7728,7 @@
       <c r="T68">
         <v>2</v>
       </c>
-      <c r="U68" s="9" t="s">
+      <c r="U68" t="s">
         <v>265</v>
       </c>
       <c r="V68" t="s">
@@ -7905,13 +7740,13 @@
       <c r="X68" t="s">
         <v>290</v>
       </c>
-      <c r="Y68" s="9" t="s">
+      <c r="Y68" t="s">
         <v>73</v>
       </c>
       <c r="Z68" t="s">
         <v>74</v>
       </c>
-      <c r="AA68" s="10" t="s">
+      <c r="AA68" t="s">
         <v>75</v>
       </c>
       <c r="AB68">
@@ -7982,7 +7817,7 @@
       <c r="T69">
         <v>2</v>
       </c>
-      <c r="U69" s="9" t="s">
+      <c r="U69" t="s">
         <v>265</v>
       </c>
       <c r="V69" t="s">
@@ -7994,13 +7829,13 @@
       <c r="X69" t="s">
         <v>293</v>
       </c>
-      <c r="Y69" s="9" t="s">
+      <c r="Y69" t="s">
         <v>73</v>
       </c>
       <c r="Z69" t="s">
         <v>74</v>
       </c>
-      <c r="AA69" s="10" t="s">
+      <c r="AA69" t="s">
         <v>75</v>
       </c>
       <c r="AB69">
@@ -8071,7 +7906,7 @@
       <c r="T70">
         <v>2</v>
       </c>
-      <c r="U70" s="9" t="s">
+      <c r="U70" t="s">
         <v>265</v>
       </c>
       <c r="V70" t="s">
@@ -8083,13 +7918,13 @@
       <c r="X70" t="s">
         <v>296</v>
       </c>
-      <c r="Y70" s="9" t="s">
+      <c r="Y70" t="s">
         <v>73</v>
       </c>
       <c r="Z70" t="s">
         <v>74</v>
       </c>
-      <c r="AA70" s="10" t="s">
+      <c r="AA70" t="s">
         <v>75</v>
       </c>
       <c r="AB70">
@@ -8160,7 +7995,7 @@
       <c r="T71">
         <v>2</v>
       </c>
-      <c r="U71" s="9" t="s">
+      <c r="U71" t="s">
         <v>265</v>
       </c>
       <c r="V71" t="s">
@@ -8172,13 +8007,13 @@
       <c r="X71" t="s">
         <v>299</v>
       </c>
-      <c r="Y71" s="9" t="s">
+      <c r="Y71" t="s">
         <v>73</v>
       </c>
       <c r="Z71" t="s">
         <v>74</v>
       </c>
-      <c r="AA71" s="10" t="s">
+      <c r="AA71" t="s">
         <v>75</v>
       </c>
       <c r="AB71">
@@ -8249,7 +8084,7 @@
       <c r="T72">
         <v>2</v>
       </c>
-      <c r="U72" s="9" t="s">
+      <c r="U72" t="s">
         <v>265</v>
       </c>
       <c r="V72" t="s">
@@ -8261,13 +8096,13 @@
       <c r="X72" t="s">
         <v>302</v>
       </c>
-      <c r="Y72" s="9" t="s">
+      <c r="Y72" t="s">
         <v>73</v>
       </c>
       <c r="Z72" t="s">
         <v>74</v>
       </c>
-      <c r="AA72" s="10" t="s">
+      <c r="AA72" t="s">
         <v>75</v>
       </c>
       <c r="AB72">
@@ -8338,7 +8173,7 @@
       <c r="T73">
         <v>2</v>
       </c>
-      <c r="U73" s="9" t="s">
+      <c r="U73" t="s">
         <v>265</v>
       </c>
       <c r="V73" t="s">
@@ -8350,13 +8185,13 @@
       <c r="X73" t="s">
         <v>305</v>
       </c>
-      <c r="Y73" s="9" t="s">
+      <c r="Y73" t="s">
         <v>73</v>
       </c>
       <c r="Z73" t="s">
         <v>74</v>
       </c>
-      <c r="AA73" s="10" t="s">
+      <c r="AA73" t="s">
         <v>75</v>
       </c>
       <c r="AB73">
@@ -8427,7 +8262,7 @@
       <c r="T74">
         <v>2</v>
       </c>
-      <c r="U74" s="9" t="s">
+      <c r="U74" t="s">
         <v>265</v>
       </c>
       <c r="V74" t="s">
@@ -8439,13 +8274,13 @@
       <c r="X74" t="s">
         <v>308</v>
       </c>
-      <c r="Y74" s="9" t="s">
+      <c r="Y74" t="s">
         <v>73</v>
       </c>
       <c r="Z74" t="s">
         <v>74</v>
       </c>
-      <c r="AA74" s="10" t="s">
+      <c r="AA74" t="s">
         <v>75</v>
       </c>
       <c r="AB74">
@@ -8516,7 +8351,7 @@
       <c r="T75">
         <v>2</v>
       </c>
-      <c r="U75" s="9" t="s">
+      <c r="U75" t="s">
         <v>265</v>
       </c>
       <c r="V75" t="s">
@@ -8528,13 +8363,13 @@
       <c r="X75" t="s">
         <v>311</v>
       </c>
-      <c r="Y75" s="9" t="s">
+      <c r="Y75" t="s">
         <v>73</v>
       </c>
       <c r="Z75" t="s">
         <v>74</v>
       </c>
-      <c r="AA75" s="10" t="s">
+      <c r="AA75" t="s">
         <v>75</v>
       </c>
       <c r="AB75">
@@ -8605,7 +8440,7 @@
       <c r="T76">
         <v>2</v>
       </c>
-      <c r="U76" s="9" t="s">
+      <c r="U76" t="s">
         <v>265</v>
       </c>
       <c r="V76" t="s">
@@ -8617,13 +8452,13 @@
       <c r="X76" t="s">
         <v>314</v>
       </c>
-      <c r="Y76" s="9" t="s">
+      <c r="Y76" t="s">
         <v>73</v>
       </c>
       <c r="Z76" t="s">
         <v>74</v>
       </c>
-      <c r="AA76" s="10" t="s">
+      <c r="AA76" t="s">
         <v>75</v>
       </c>
       <c r="AB76">
@@ -8694,7 +8529,7 @@
       <c r="T77">
         <v>2</v>
       </c>
-      <c r="U77" s="9" t="s">
+      <c r="U77" t="s">
         <v>265</v>
       </c>
       <c r="V77" t="s">
@@ -8706,13 +8541,13 @@
       <c r="X77" t="s">
         <v>317</v>
       </c>
-      <c r="Y77" s="9" t="s">
+      <c r="Y77" t="s">
         <v>73</v>
       </c>
       <c r="Z77" t="s">
         <v>74</v>
       </c>
-      <c r="AA77" s="10" t="s">
+      <c r="AA77" t="s">
         <v>75</v>
       </c>
       <c r="AB77">
@@ -8783,7 +8618,7 @@
       <c r="T78">
         <v>2</v>
       </c>
-      <c r="U78" s="9" t="s">
+      <c r="U78" t="s">
         <v>265</v>
       </c>
       <c r="V78" t="s">
@@ -8795,13 +8630,13 @@
       <c r="X78" t="s">
         <v>320</v>
       </c>
-      <c r="Y78" s="9" t="s">
+      <c r="Y78" t="s">
         <v>73</v>
       </c>
       <c r="Z78" t="s">
         <v>74</v>
       </c>
-      <c r="AA78" s="10" t="s">
+      <c r="AA78" t="s">
         <v>75</v>
       </c>
       <c r="AB78">
@@ -8872,7 +8707,7 @@
       <c r="T79">
         <v>2</v>
       </c>
-      <c r="U79" s="9" t="s">
+      <c r="U79" t="s">
         <v>265</v>
       </c>
       <c r="V79" t="s">
@@ -8884,13 +8719,13 @@
       <c r="X79" t="s">
         <v>323</v>
       </c>
-      <c r="Y79" s="9" t="s">
+      <c r="Y79" t="s">
         <v>73</v>
       </c>
       <c r="Z79" t="s">
         <v>74</v>
       </c>
-      <c r="AA79" s="10" t="s">
+      <c r="AA79" t="s">
         <v>75</v>
       </c>
       <c r="AB79">
@@ -8961,7 +8796,7 @@
       <c r="T80">
         <v>2</v>
       </c>
-      <c r="U80" s="9" t="s">
+      <c r="U80" t="s">
         <v>265</v>
       </c>
       <c r="V80" t="s">
@@ -8973,13 +8808,13 @@
       <c r="X80" t="s">
         <v>326</v>
       </c>
-      <c r="Y80" s="9" t="s">
+      <c r="Y80" t="s">
         <v>73</v>
       </c>
       <c r="Z80" t="s">
         <v>74</v>
       </c>
-      <c r="AA80" s="10" t="s">
+      <c r="AA80" t="s">
         <v>75</v>
       </c>
       <c r="AB80">
@@ -9050,7 +8885,7 @@
       <c r="T81">
         <v>2</v>
       </c>
-      <c r="U81" s="9" t="s">
+      <c r="U81" t="s">
         <v>265</v>
       </c>
       <c r="V81" t="s">
@@ -9062,13 +8897,13 @@
       <c r="X81" t="s">
         <v>329</v>
       </c>
-      <c r="Y81" s="9" t="s">
+      <c r="Y81" t="s">
         <v>73</v>
       </c>
       <c r="Z81" t="s">
         <v>74</v>
       </c>
-      <c r="AA81" s="10" t="s">
+      <c r="AA81" t="s">
         <v>75</v>
       </c>
       <c r="AB81">
@@ -9139,7 +8974,7 @@
       <c r="T82">
         <v>2</v>
       </c>
-      <c r="U82" s="9" t="s">
+      <c r="U82" t="s">
         <v>265</v>
       </c>
       <c r="V82" t="s">
@@ -9151,13 +8986,13 @@
       <c r="X82" t="s">
         <v>332</v>
       </c>
-      <c r="Y82" s="9" t="s">
+      <c r="Y82" t="s">
         <v>73</v>
       </c>
       <c r="Z82" t="s">
         <v>74</v>
       </c>
-      <c r="AA82" s="10" t="s">
+      <c r="AA82" t="s">
         <v>75</v>
       </c>
       <c r="AB82">
@@ -9228,7 +9063,7 @@
       <c r="T83">
         <v>2</v>
       </c>
-      <c r="U83" s="9" t="s">
+      <c r="U83" t="s">
         <v>265</v>
       </c>
       <c r="V83" t="s">
@@ -9240,13 +9075,13 @@
       <c r="X83" t="s">
         <v>335</v>
       </c>
-      <c r="Y83" s="9" t="s">
+      <c r="Y83" t="s">
         <v>73</v>
       </c>
       <c r="Z83" t="s">
         <v>74</v>
       </c>
-      <c r="AA83" s="10" t="s">
+      <c r="AA83" t="s">
         <v>75</v>
       </c>
       <c r="AB83">
@@ -9317,7 +9152,7 @@
       <c r="T84">
         <v>2</v>
       </c>
-      <c r="U84" s="9" t="s">
+      <c r="U84" t="s">
         <v>265</v>
       </c>
       <c r="V84" t="s">
@@ -9329,13 +9164,13 @@
       <c r="X84" t="s">
         <v>338</v>
       </c>
-      <c r="Y84" s="9" t="s">
+      <c r="Y84" t="s">
         <v>73</v>
       </c>
       <c r="Z84" t="s">
         <v>74</v>
       </c>
-      <c r="AA84" s="10" t="s">
+      <c r="AA84" t="s">
         <v>75</v>
       </c>
       <c r="AB84">
@@ -9406,7 +9241,7 @@
       <c r="T85">
         <v>2</v>
       </c>
-      <c r="U85" s="9" t="s">
+      <c r="U85" t="s">
         <v>265</v>
       </c>
       <c r="V85" t="s">
@@ -9418,13 +9253,13 @@
       <c r="X85" t="s">
         <v>341</v>
       </c>
-      <c r="Y85" s="9" t="s">
+      <c r="Y85" t="s">
         <v>73</v>
       </c>
       <c r="Z85" t="s">
         <v>74</v>
       </c>
-      <c r="AA85" s="10" t="s">
+      <c r="AA85" t="s">
         <v>75</v>
       </c>
       <c r="AB85">
@@ -9495,7 +9330,7 @@
       <c r="T86">
         <v>2</v>
       </c>
-      <c r="U86" s="9" t="s">
+      <c r="U86" t="s">
         <v>265</v>
       </c>
       <c r="V86" t="s">
@@ -9507,13 +9342,13 @@
       <c r="X86" t="s">
         <v>344</v>
       </c>
-      <c r="Y86" s="9" t="s">
+      <c r="Y86" t="s">
         <v>73</v>
       </c>
       <c r="Z86" t="s">
         <v>74</v>
       </c>
-      <c r="AA86" s="10" t="s">
+      <c r="AA86" t="s">
         <v>75</v>
       </c>
       <c r="AB86">
@@ -9530,13 +9365,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:I7 J7:AC7 AD7:AE7" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-  </dataValidations>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
@@ -9544,11 +9373,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AD28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9556,810 +9385,744 @@
     <col min="1" max="1" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>345</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>346</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>347</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>348</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>349</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>350</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>351</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>352</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>353</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>354</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>355</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>356</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>357</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>358</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>359</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>360</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s">
         <v>361</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" t="s">
         <v>362</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" t="s">
         <v>363</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" t="s">
         <v>364</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" t="s">
         <v>365</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" t="s">
         <v>366</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" t="s">
         <v>367</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" t="s">
         <v>368</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" t="s">
         <v>369</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" t="s">
         <v>370</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" t="s">
         <v>371</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" t="s">
         <v>372</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" t="s">
         <v>33</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" t="s">
         <v>33</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" t="s">
         <v>33</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" t="s">
         <v>33</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Y2" t="s">
         <v>33</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="Z2" t="s">
         <v>33</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AA2" t="s">
         <v>33</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AB2" t="s">
         <v>33</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AC2" t="s">
         <v>33</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AD2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="2" t="b">
+      <c r="B3" t="b">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="b">
+      <c r="C3" t="b">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="b">
+      <c r="D3" t="b">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="b">
+      <c r="E3" t="b">
         <v>1</v>
       </c>
-      <c r="F3" s="2" t="b">
+      <c r="F3" t="b">
         <v>1</v>
       </c>
-      <c r="G3" s="2" t="b">
+      <c r="G3" t="b">
         <v>1</v>
       </c>
-      <c r="H3" s="2" t="b">
+      <c r="H3" t="b">
         <v>1</v>
       </c>
-      <c r="I3" s="2" t="b">
+      <c r="I3" t="b">
         <v>1</v>
       </c>
-      <c r="J3" s="2" t="b">
+      <c r="J3" t="b">
         <v>1</v>
       </c>
-      <c r="K3" s="2" t="b">
+      <c r="K3" t="b">
         <v>1</v>
       </c>
-      <c r="L3" s="2" t="b">
+      <c r="L3" t="b">
         <v>1</v>
       </c>
-      <c r="M3" s="2" t="b">
+      <c r="M3" t="b">
         <v>1</v>
       </c>
-      <c r="N3" s="2" t="b">
+      <c r="N3" t="b">
         <v>1</v>
       </c>
-      <c r="O3" s="2" t="b">
+      <c r="O3" t="b">
         <v>1</v>
       </c>
-      <c r="P3" s="2" t="b">
+      <c r="P3" t="b">
         <v>1</v>
       </c>
-      <c r="Q3" s="2" t="b">
+      <c r="Q3" t="b">
         <v>1</v>
       </c>
-      <c r="R3" s="2" t="b">
+      <c r="R3" t="b">
         <v>1</v>
       </c>
-      <c r="S3" s="2" t="b">
+      <c r="S3" t="b">
         <v>1</v>
       </c>
-      <c r="T3" s="2" t="b">
+      <c r="T3" t="b">
         <v>1</v>
       </c>
-      <c r="U3" s="2" t="b">
+      <c r="U3" t="b">
         <v>1</v>
       </c>
-      <c r="V3" s="2" t="b">
+      <c r="V3" t="b">
         <v>1</v>
       </c>
-      <c r="W3" s="2" t="b">
+      <c r="W3" t="b">
         <v>1</v>
       </c>
-      <c r="X3" s="2" t="b">
+      <c r="X3" t="b">
         <v>1</v>
       </c>
-      <c r="Y3" s="2" t="b">
+      <c r="Y3" t="b">
         <v>1</v>
       </c>
-      <c r="Z3" s="2" t="b">
+      <c r="Z3" t="b">
         <v>1</v>
       </c>
-      <c r="AA3" s="2" t="b">
+      <c r="AA3" t="b">
         <v>1</v>
       </c>
-      <c r="AB3" s="2" t="b">
+      <c r="AB3" t="b">
         <v>1</v>
       </c>
-      <c r="AC3" s="2" t="b">
+      <c r="AC3" t="b">
         <v>1</v>
       </c>
-      <c r="AD3" s="2" t="b">
+      <c r="AD3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="2" t="b">
+      <c r="B4" t="b">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="b">
+      <c r="C4" t="b">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="b">
+      <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="b">
+      <c r="E4" t="b">
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="b">
+      <c r="F4" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="2" t="b">
+      <c r="G4" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="2" t="b">
+      <c r="H4" t="b">
         <v>1</v>
       </c>
-      <c r="I4" s="2" t="b">
+      <c r="I4" t="b">
         <v>1</v>
       </c>
-      <c r="J4" s="2" t="b">
+      <c r="J4" t="b">
         <v>1</v>
       </c>
-      <c r="K4" s="2" t="b">
+      <c r="K4" t="b">
         <v>1</v>
       </c>
-      <c r="L4" s="2" t="b">
+      <c r="L4" t="b">
         <v>1</v>
       </c>
-      <c r="M4" s="2" t="b">
+      <c r="M4" t="b">
         <v>1</v>
       </c>
-      <c r="N4" s="2" t="b">
+      <c r="N4" t="b">
         <v>1</v>
       </c>
-      <c r="O4" s="2" t="b">
+      <c r="O4" t="b">
         <v>1</v>
       </c>
-      <c r="P4" s="2" t="b">
+      <c r="P4" t="b">
         <v>1</v>
       </c>
-      <c r="Q4" s="2" t="b">
+      <c r="Q4" t="b">
         <v>1</v>
       </c>
-      <c r="R4" s="2" t="b">
+      <c r="R4" t="b">
         <v>1</v>
       </c>
-      <c r="S4" s="2" t="b">
+      <c r="S4" t="b">
         <v>1</v>
       </c>
-      <c r="T4" s="2" t="b">
+      <c r="T4" t="b">
         <v>1</v>
       </c>
-      <c r="U4" s="2" t="b">
+      <c r="U4" t="b">
         <v>1</v>
       </c>
-      <c r="V4" s="2" t="b">
+      <c r="V4" t="b">
         <v>1</v>
       </c>
-      <c r="W4" s="2" t="b">
+      <c r="W4" t="b">
         <v>1</v>
       </c>
-      <c r="X4" s="2" t="b">
+      <c r="X4" t="b">
         <v>1</v>
       </c>
-      <c r="Y4" s="2" t="b">
+      <c r="Y4" t="b">
         <v>1</v>
       </c>
-      <c r="Z4" s="2" t="b">
+      <c r="Z4" t="b">
         <v>1</v>
       </c>
-      <c r="AA4" s="2" t="b">
+      <c r="AA4" t="b">
         <v>1</v>
       </c>
-      <c r="AB4" s="2" t="b">
+      <c r="AB4" t="b">
         <v>1</v>
       </c>
-      <c r="AC4" s="2" t="b">
+      <c r="AC4" t="b">
         <v>1</v>
       </c>
-      <c r="AD4" s="2" t="b">
+      <c r="AD4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="R5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="S5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="T5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="U5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="V5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="W5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="X5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="2" t="b">
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5" t="b">
+        <v>0</v>
+      </c>
+      <c r="U5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V5" t="b">
+        <v>0</v>
+      </c>
+      <c r="W5" t="b">
+        <v>0</v>
+      </c>
+      <c r="X5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="R6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="S6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="T6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="U6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="V6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="W6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="X6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="2" t="b">
+      <c r="B6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6" t="b">
+        <v>0</v>
+      </c>
+      <c r="T6" t="b">
+        <v>0</v>
+      </c>
+      <c r="U6" t="b">
+        <v>0</v>
+      </c>
+      <c r="V6" t="b">
+        <v>0</v>
+      </c>
+      <c r="W6" t="b">
+        <v>0</v>
+      </c>
+      <c r="X6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="R7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="S7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="T7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="U7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="V7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="W7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="X7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="3" t="b">
+      <c r="B7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="b">
+        <v>0</v>
+      </c>
+      <c r="R7" t="b">
+        <v>0</v>
+      </c>
+      <c r="S7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T7" t="b">
+        <v>0</v>
+      </c>
+      <c r="U7" t="b">
+        <v>0</v>
+      </c>
+      <c r="V7" t="b">
+        <v>0</v>
+      </c>
+      <c r="W7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="4" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s">
         <v>374</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" t="s">
         <v>375</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" t="s">
         <v>376</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" t="s">
         <v>377</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" t="s">
         <v>378</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" t="s">
         <v>379</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" t="s">
         <v>380</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" t="s">
         <v>381</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" t="s">
         <v>382</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" t="s">
         <v>383</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="O8" t="s">
         <v>384</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="P8" t="s">
         <v>385</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="Q8" t="s">
         <v>386</v>
       </c>
-      <c r="R8" s="4" t="s">
+      <c r="R8" t="s">
         <v>387</v>
       </c>
-      <c r="S8" s="4" t="s">
+      <c r="S8" t="s">
         <v>388</v>
       </c>
-      <c r="T8" s="4" t="s">
+      <c r="T8" t="s">
         <v>389</v>
       </c>
-      <c r="U8" s="4" t="s">
+      <c r="U8" t="s">
         <v>390</v>
       </c>
-      <c r="V8" s="4" t="s">
+      <c r="V8" t="s">
         <v>391</v>
       </c>
-      <c r="W8" s="4" t="s">
+      <c r="W8" t="s">
         <v>392</v>
       </c>
-      <c r="X8" s="4" t="s">
+      <c r="X8" t="s">
         <v>393</v>
       </c>
-      <c r="Y8" s="4" t="s">
+      <c r="Y8" t="s">
         <v>394</v>
       </c>
-      <c r="Z8" s="4" t="s">
+      <c r="Z8" t="s">
         <v>395</v>
       </c>
-      <c r="AA8" s="4" t="s">
+      <c r="AA8" t="s">
         <v>396</v>
       </c>
-      <c r="AB8" s="4" t="s">
+      <c r="AB8" t="s">
         <v>397</v>
       </c>
-      <c r="AC8" s="4" t="s">
+      <c r="AC8" t="s">
         <v>398</v>
       </c>
-      <c r="AD8" s="4" t="s">
+      <c r="AD8" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A10" s="9"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A11" s="9"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A12" s="9"/>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A13" s="9"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A14" s="9"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A15" s="9"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A16" s="9"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="9"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="9"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="9"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="9"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="9"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="9"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="9"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="9"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="9"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="9"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="9"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:I7 J7:AD7" xr:uid="{00000000-0002-0000-0100-000001000000}">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-  </dataValidations>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>

--- a/Bin/resource/excel/NPC.xlsx
+++ b/Bin/resource/excel/NPC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="27525" windowHeight="17535" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="27525" windowHeight="17535"/>
   </bookViews>
   <sheets>
     <sheet name="DataNode_1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="401">
   <si>
     <t>Id</t>
   </si>
@@ -147,9 +147,6 @@
     <t>float</t>
   </si>
   <si>
-    <t>object</t>
-  </si>
-  <si>
     <t>Public</t>
   </si>
   <si>
@@ -1240,13 +1237,33 @@
   </si>
   <si>
     <t>BUFF免疫开关</t>
+  </si>
+  <si>
+    <t>int64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nt64</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1256,6 +1273,13 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1281,8 +1305,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1654,10 +1681,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="E90" sqref="E90"/>
+      <selection pane="bottomLeft" activeCell="AD7" sqref="AD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1675,6 +1702,7 @@
     <col min="12" max="12" width="12.625" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
+    <col min="23" max="23" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.15">
@@ -1840,7 +1868,7 @@
         <v>32</v>
       </c>
       <c r="W2" t="s">
-        <v>35</v>
+        <v>399</v>
       </c>
       <c r="X2" t="s">
         <v>32</v>
@@ -1860,8 +1888,8 @@
       <c r="AC2" t="s">
         <v>33</v>
       </c>
-      <c r="AD2" t="s">
-        <v>35</v>
+      <c r="AD2" s="1" t="s">
+        <v>400</v>
       </c>
       <c r="AE2" t="s">
         <v>33</v>
@@ -1869,7 +1897,7 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" t="b">
         <v>0</v>
@@ -1964,7 +1992,7 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" t="b">
         <v>0</v>
@@ -2059,7 +2087,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
@@ -2154,7 +2182,7 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" t="b">
         <v>0</v>
@@ -2249,7 +2277,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" t="b">
         <v>0</v>
@@ -2344,126 +2372,126 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
         <v>41</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>42</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>43</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>44</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>45</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>46</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>47</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>48</v>
       </c>
-      <c r="I8" t="s">
+      <c r="O8" t="s">
         <v>49</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>50</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>52</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>53</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>54</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>55</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>56</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>57</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>58</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>59</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>60</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>61</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>62</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>63</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>64</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>65</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" t="s">
         <v>67</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9" t="s">
-        <v>68</v>
       </c>
       <c r="P9">
         <v>2</v>
@@ -2472,31 +2500,31 @@
         <v>20</v>
       </c>
       <c r="R9" t="s">
+        <v>68</v>
+      </c>
+      <c r="T9">
+        <v>2</v>
+      </c>
+      <c r="U9" t="s">
         <v>69</v>
       </c>
-      <c r="T9">
-        <v>2</v>
-      </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>70</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9" t="s">
         <v>71</v>
       </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>72</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>73</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>74</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>75</v>
       </c>
       <c r="AB9">
         <v>0</v>
@@ -2513,46 +2541,46 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
         <v>76</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10" t="s">
-        <v>77</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -2561,31 +2589,31 @@
         <v>20</v>
       </c>
       <c r="R10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T10">
         <v>2</v>
       </c>
       <c r="U10" t="s">
+        <v>77</v>
+      </c>
+      <c r="V10" t="s">
+        <v>70</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10" t="s">
         <v>78</v>
       </c>
-      <c r="V10" t="s">
-        <v>71</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10" t="s">
-        <v>79</v>
-      </c>
       <c r="Y10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z10" t="s">
         <v>73</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>75</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -2602,46 +2630,46 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
         <v>80</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11" t="s">
-        <v>81</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -2650,31 +2678,31 @@
         <v>20</v>
       </c>
       <c r="R11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T11">
         <v>2</v>
       </c>
       <c r="U11" t="s">
+        <v>81</v>
+      </c>
+      <c r="V11" t="s">
+        <v>70</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11" t="s">
         <v>82</v>
       </c>
-      <c r="V11" t="s">
-        <v>71</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11" t="s">
-        <v>83</v>
-      </c>
       <c r="Y11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z11" t="s">
         <v>73</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>74</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>75</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -2691,46 +2719,46 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
         <v>84</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12" t="s">
-        <v>85</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -2739,31 +2767,31 @@
         <v>20</v>
       </c>
       <c r="R12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T12">
         <v>2</v>
       </c>
       <c r="U12" t="s">
+        <v>85</v>
+      </c>
+      <c r="V12" t="s">
+        <v>70</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12" t="s">
         <v>86</v>
       </c>
-      <c r="V12" t="s">
-        <v>71</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12" t="s">
-        <v>87</v>
-      </c>
       <c r="Y12" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z12" t="s">
         <v>73</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>74</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>75</v>
       </c>
       <c r="AB12">
         <v>0</v>
@@ -2780,46 +2808,46 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
         <v>88</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13" t="s">
-        <v>89</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -2828,31 +2856,31 @@
         <v>20</v>
       </c>
       <c r="R13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T13">
         <v>2</v>
       </c>
       <c r="U13" t="s">
+        <v>89</v>
+      </c>
+      <c r="V13" t="s">
+        <v>70</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13" t="s">
         <v>90</v>
       </c>
-      <c r="V13" t="s">
-        <v>71</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13" t="s">
-        <v>91</v>
-      </c>
       <c r="Y13" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z13" t="s">
         <v>73</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>74</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>75</v>
       </c>
       <c r="AB13">
         <v>0</v>
@@ -2869,46 +2897,46 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" t="s">
         <v>92</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14" t="s">
-        <v>93</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -2917,31 +2945,31 @@
         <v>20</v>
       </c>
       <c r="R14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T14">
         <v>2</v>
       </c>
       <c r="U14" t="s">
+        <v>93</v>
+      </c>
+      <c r="V14" t="s">
+        <v>70</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14" t="s">
         <v>94</v>
       </c>
-      <c r="V14" t="s">
-        <v>71</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14" t="s">
-        <v>95</v>
-      </c>
       <c r="Y14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z14" t="s">
         <v>73</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>74</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>75</v>
       </c>
       <c r="AB14">
         <v>0</v>
@@ -2958,46 +2986,46 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
         <v>96</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15" t="s">
-        <v>97</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -3006,31 +3034,31 @@
         <v>20</v>
       </c>
       <c r="R15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T15">
         <v>2</v>
       </c>
       <c r="U15" t="s">
+        <v>97</v>
+      </c>
+      <c r="V15" t="s">
+        <v>70</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15" t="s">
         <v>98</v>
       </c>
-      <c r="V15" t="s">
-        <v>71</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15" t="s">
-        <v>99</v>
-      </c>
       <c r="Y15" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z15" t="s">
         <v>73</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>74</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>75</v>
       </c>
       <c r="AB15">
         <v>0</v>
@@ -3047,7 +3075,7 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -3086,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -3095,31 +3123,31 @@
         <v>20</v>
       </c>
       <c r="R16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T16">
         <v>2</v>
       </c>
       <c r="U16" t="s">
+        <v>100</v>
+      </c>
+      <c r="V16" t="s">
+        <v>70</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16" t="s">
         <v>101</v>
       </c>
-      <c r="V16" t="s">
-        <v>71</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16" t="s">
-        <v>102</v>
-      </c>
       <c r="Y16" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z16" t="s">
         <v>73</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>74</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>75</v>
       </c>
       <c r="AB16">
         <v>0</v>
@@ -3136,7 +3164,7 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -3175,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -3184,31 +3212,31 @@
         <v>20</v>
       </c>
       <c r="R17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T17">
         <v>2</v>
       </c>
       <c r="U17" t="s">
+        <v>103</v>
+      </c>
+      <c r="V17" t="s">
+        <v>70</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17" t="s">
         <v>104</v>
       </c>
-      <c r="V17" t="s">
-        <v>71</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17" t="s">
-        <v>105</v>
-      </c>
       <c r="Y17" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z17" t="s">
         <v>73</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>74</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>75</v>
       </c>
       <c r="AB17">
         <v>0</v>
@@ -3225,7 +3253,7 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -3264,7 +3292,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -3273,31 +3301,31 @@
         <v>20</v>
       </c>
       <c r="R18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T18">
         <v>2</v>
       </c>
       <c r="U18" t="s">
+        <v>106</v>
+      </c>
+      <c r="V18" t="s">
+        <v>70</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18" t="s">
         <v>107</v>
       </c>
-      <c r="V18" t="s">
-        <v>71</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18" t="s">
-        <v>108</v>
-      </c>
       <c r="Y18" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z18" t="s">
         <v>73</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AA18" t="s">
         <v>74</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>75</v>
       </c>
       <c r="AB18">
         <v>0</v>
@@ -3314,7 +3342,7 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -3353,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -3362,31 +3390,31 @@
         <v>20</v>
       </c>
       <c r="R19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T19">
         <v>2</v>
       </c>
       <c r="U19" t="s">
+        <v>109</v>
+      </c>
+      <c r="V19" t="s">
+        <v>70</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19" t="s">
         <v>110</v>
       </c>
-      <c r="V19" t="s">
-        <v>71</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19" t="s">
-        <v>111</v>
-      </c>
       <c r="Y19" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z19" t="s">
         <v>73</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AA19" t="s">
         <v>74</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>75</v>
       </c>
       <c r="AB19">
         <v>0</v>
@@ -3403,7 +3431,7 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -3442,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -3451,31 +3479,31 @@
         <v>20</v>
       </c>
       <c r="R20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T20">
         <v>2</v>
       </c>
       <c r="U20" t="s">
+        <v>112</v>
+      </c>
+      <c r="V20" t="s">
+        <v>70</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20" t="s">
         <v>113</v>
       </c>
-      <c r="V20" t="s">
-        <v>71</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20" t="s">
-        <v>114</v>
-      </c>
       <c r="Y20" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z20" t="s">
         <v>73</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AA20" t="s">
         <v>74</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>75</v>
       </c>
       <c r="AB20">
         <v>0</v>
@@ -3492,7 +3520,7 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -3531,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -3540,31 +3568,31 @@
         <v>20</v>
       </c>
       <c r="R21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T21">
         <v>2</v>
       </c>
       <c r="U21" t="s">
+        <v>115</v>
+      </c>
+      <c r="V21" t="s">
+        <v>70</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21" t="s">
         <v>116</v>
       </c>
-      <c r="V21" t="s">
-        <v>71</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21" t="s">
-        <v>117</v>
-      </c>
       <c r="Y21" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z21" t="s">
         <v>73</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="AA21" t="s">
         <v>74</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>75</v>
       </c>
       <c r="AB21">
         <v>0</v>
@@ -3581,7 +3609,7 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -3620,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -3629,31 +3657,31 @@
         <v>20</v>
       </c>
       <c r="R22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T22">
         <v>2</v>
       </c>
       <c r="U22" t="s">
+        <v>118</v>
+      </c>
+      <c r="V22" t="s">
+        <v>70</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22" t="s">
         <v>119</v>
       </c>
-      <c r="V22" t="s">
-        <v>71</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22" t="s">
-        <v>120</v>
-      </c>
       <c r="Y22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z22" t="s">
         <v>73</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AA22" t="s">
         <v>74</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>75</v>
       </c>
       <c r="AB22">
         <v>0</v>
@@ -3670,7 +3698,7 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -3709,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -3718,31 +3746,31 @@
         <v>20</v>
       </c>
       <c r="R23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T23">
         <v>2</v>
       </c>
       <c r="U23" t="s">
+        <v>121</v>
+      </c>
+      <c r="V23" t="s">
+        <v>70</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23" t="s">
         <v>122</v>
       </c>
-      <c r="V23" t="s">
-        <v>71</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23" t="s">
-        <v>123</v>
-      </c>
       <c r="Y23" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z23" t="s">
         <v>73</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="AA23" t="s">
         <v>74</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>75</v>
       </c>
       <c r="AB23">
         <v>0</v>
@@ -3759,7 +3787,7 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -3798,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -3807,31 +3835,31 @@
         <v>20</v>
       </c>
       <c r="R24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T24">
         <v>2</v>
       </c>
       <c r="U24" t="s">
+        <v>124</v>
+      </c>
+      <c r="V24" t="s">
+        <v>70</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24" t="s">
         <v>125</v>
       </c>
-      <c r="V24" t="s">
-        <v>71</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24" t="s">
-        <v>126</v>
-      </c>
       <c r="Y24" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z24" t="s">
         <v>73</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AA24" t="s">
         <v>74</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>75</v>
       </c>
       <c r="AB24">
         <v>0</v>
@@ -3848,7 +3876,7 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -3887,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P25">
         <v>2</v>
@@ -3896,31 +3924,31 @@
         <v>20</v>
       </c>
       <c r="R25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T25">
         <v>2</v>
       </c>
       <c r="U25" t="s">
+        <v>127</v>
+      </c>
+      <c r="V25" t="s">
+        <v>70</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25" t="s">
         <v>128</v>
       </c>
-      <c r="V25" t="s">
-        <v>71</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25" t="s">
-        <v>129</v>
-      </c>
       <c r="Y25" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z25" t="s">
         <v>73</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="AA25" t="s">
         <v>74</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>75</v>
       </c>
       <c r="AB25">
         <v>0</v>
@@ -3937,7 +3965,7 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -3976,7 +4004,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P26">
         <v>2</v>
@@ -3985,31 +4013,31 @@
         <v>20</v>
       </c>
       <c r="R26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T26">
         <v>2</v>
       </c>
       <c r="U26" t="s">
+        <v>130</v>
+      </c>
+      <c r="V26" t="s">
+        <v>70</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26" t="s">
         <v>131</v>
       </c>
-      <c r="V26" t="s">
-        <v>71</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26" t="s">
-        <v>132</v>
-      </c>
       <c r="Y26" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z26" t="s">
         <v>73</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="AA26" t="s">
         <v>74</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>75</v>
       </c>
       <c r="AB26">
         <v>0</v>
@@ -4026,7 +4054,7 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -4065,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P27">
         <v>2</v>
@@ -4074,31 +4102,31 @@
         <v>20</v>
       </c>
       <c r="R27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T27">
         <v>2</v>
       </c>
       <c r="U27" t="s">
+        <v>133</v>
+      </c>
+      <c r="V27" t="s">
+        <v>70</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27" t="s">
         <v>134</v>
       </c>
-      <c r="V27" t="s">
-        <v>71</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27" t="s">
-        <v>135</v>
-      </c>
       <c r="Y27" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z27" t="s">
         <v>73</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="AA27" t="s">
         <v>74</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>75</v>
       </c>
       <c r="AB27">
         <v>0</v>
@@ -4115,7 +4143,7 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -4154,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P28">
         <v>2</v>
@@ -4163,31 +4191,31 @@
         <v>20</v>
       </c>
       <c r="R28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T28">
         <v>2</v>
       </c>
       <c r="U28" t="s">
+        <v>136</v>
+      </c>
+      <c r="V28" t="s">
+        <v>70</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28" t="s">
         <v>137</v>
       </c>
-      <c r="V28" t="s">
-        <v>71</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28" t="s">
-        <v>138</v>
-      </c>
       <c r="Y28" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z28" t="s">
         <v>73</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="AA28" t="s">
         <v>74</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>75</v>
       </c>
       <c r="AB28">
         <v>0</v>
@@ -4204,46 +4232,46 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29" t="s">
         <v>139</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29" t="s">
-        <v>140</v>
       </c>
       <c r="P29">
         <v>2</v>
@@ -4252,31 +4280,31 @@
         <v>20</v>
       </c>
       <c r="R29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T29">
         <v>2</v>
       </c>
       <c r="U29" t="s">
+        <v>140</v>
+      </c>
+      <c r="V29" t="s">
+        <v>70</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29" t="s">
         <v>141</v>
       </c>
-      <c r="V29" t="s">
-        <v>71</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29" t="s">
-        <v>142</v>
-      </c>
       <c r="Y29" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z29" t="s">
         <v>73</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="AA29" t="s">
         <v>74</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>75</v>
       </c>
       <c r="AB29">
         <v>0</v>
@@ -4293,46 +4321,46 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30" t="s">
         <v>143</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30" t="s">
-        <v>144</v>
       </c>
       <c r="P30">
         <v>2</v>
@@ -4341,31 +4369,31 @@
         <v>20</v>
       </c>
       <c r="R30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T30">
         <v>2</v>
       </c>
       <c r="U30" t="s">
+        <v>144</v>
+      </c>
+      <c r="V30" t="s">
+        <v>70</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30" t="s">
         <v>145</v>
       </c>
-      <c r="V30" t="s">
-        <v>71</v>
-      </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="X30" t="s">
-        <v>146</v>
-      </c>
       <c r="Y30" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z30" t="s">
         <v>73</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="AA30" t="s">
         <v>74</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>75</v>
       </c>
       <c r="AB30">
         <v>0</v>
@@ -4382,46 +4410,46 @@
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31" t="s">
         <v>147</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31" t="s">
-        <v>148</v>
       </c>
       <c r="P31">
         <v>2</v>
@@ -4430,31 +4458,31 @@
         <v>20</v>
       </c>
       <c r="R31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T31">
         <v>2</v>
       </c>
       <c r="U31" t="s">
+        <v>148</v>
+      </c>
+      <c r="V31" t="s">
+        <v>70</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31" t="s">
         <v>149</v>
       </c>
-      <c r="V31" t="s">
-        <v>71</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31" t="s">
-        <v>150</v>
-      </c>
       <c r="Y31" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z31" t="s">
         <v>73</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="AA31" t="s">
         <v>74</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>75</v>
       </c>
       <c r="AB31">
         <v>0</v>
@@ -4471,46 +4499,46 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
+        <v>150</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32" t="s">
         <v>151</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32" t="s">
-        <v>152</v>
       </c>
       <c r="P32">
         <v>2</v>
@@ -4519,31 +4547,31 @@
         <v>20</v>
       </c>
       <c r="R32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T32">
         <v>2</v>
       </c>
       <c r="U32" t="s">
+        <v>152</v>
+      </c>
+      <c r="V32" t="s">
+        <v>70</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32" t="s">
         <v>153</v>
       </c>
-      <c r="V32" t="s">
-        <v>71</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="X32" t="s">
-        <v>154</v>
-      </c>
       <c r="Y32" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z32" t="s">
         <v>73</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="AA32" t="s">
         <v>74</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>75</v>
       </c>
       <c r="AB32">
         <v>0</v>
@@ -4560,46 +4588,46 @@
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33" t="s">
         <v>155</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33" t="s">
-        <v>156</v>
       </c>
       <c r="P33">
         <v>2</v>
@@ -4608,31 +4636,31 @@
         <v>20</v>
       </c>
       <c r="R33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T33">
         <v>2</v>
       </c>
       <c r="U33" t="s">
+        <v>156</v>
+      </c>
+      <c r="V33" t="s">
+        <v>70</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33" t="s">
         <v>157</v>
       </c>
-      <c r="V33" t="s">
-        <v>71</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="X33" t="s">
-        <v>158</v>
-      </c>
       <c r="Y33" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z33" t="s">
         <v>73</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="AA33" t="s">
         <v>74</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>75</v>
       </c>
       <c r="AB33">
         <v>0</v>
@@ -4649,46 +4677,46 @@
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34" t="s">
         <v>159</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34" t="s">
-        <v>160</v>
       </c>
       <c r="P34">
         <v>2</v>
@@ -4697,31 +4725,31 @@
         <v>20</v>
       </c>
       <c r="R34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T34">
         <v>2</v>
       </c>
       <c r="U34" t="s">
+        <v>160</v>
+      </c>
+      <c r="V34" t="s">
+        <v>70</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34" t="s">
         <v>161</v>
       </c>
-      <c r="V34" t="s">
-        <v>71</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34" t="s">
-        <v>162</v>
-      </c>
       <c r="Y34" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z34" t="s">
         <v>73</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="AA34" t="s">
         <v>74</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>75</v>
       </c>
       <c r="AB34">
         <v>0</v>
@@ -4738,46 +4766,46 @@
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35" t="s">
         <v>163</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35" t="s">
-        <v>164</v>
       </c>
       <c r="P35">
         <v>2</v>
@@ -4786,31 +4814,31 @@
         <v>20</v>
       </c>
       <c r="R35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T35">
         <v>2</v>
       </c>
       <c r="U35" t="s">
+        <v>164</v>
+      </c>
+      <c r="V35" t="s">
+        <v>70</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35" t="s">
         <v>165</v>
       </c>
-      <c r="V35" t="s">
-        <v>71</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="X35" t="s">
-        <v>166</v>
-      </c>
       <c r="Y35" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z35" t="s">
         <v>73</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="AA35" t="s">
         <v>74</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>75</v>
       </c>
       <c r="AB35">
         <v>0</v>
@@ -4827,46 +4855,46 @@
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36" t="s">
         <v>167</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36" t="s">
-        <v>168</v>
       </c>
       <c r="P36">
         <v>2</v>
@@ -4875,31 +4903,31 @@
         <v>20</v>
       </c>
       <c r="R36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T36">
         <v>2</v>
       </c>
       <c r="U36" t="s">
+        <v>168</v>
+      </c>
+      <c r="V36" t="s">
+        <v>70</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36" t="s">
         <v>169</v>
       </c>
-      <c r="V36" t="s">
-        <v>71</v>
-      </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-      <c r="X36" t="s">
-        <v>170</v>
-      </c>
       <c r="Y36" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z36" t="s">
         <v>73</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="AA36" t="s">
         <v>74</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>75</v>
       </c>
       <c r="AB36">
         <v>0</v>
@@ -4916,46 +4944,46 @@
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37" t="s">
         <v>171</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37" t="s">
-        <v>172</v>
       </c>
       <c r="P37">
         <v>2</v>
@@ -4964,31 +4992,31 @@
         <v>20</v>
       </c>
       <c r="R37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T37">
         <v>2</v>
       </c>
       <c r="U37" t="s">
+        <v>172</v>
+      </c>
+      <c r="V37" t="s">
+        <v>70</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37" t="s">
         <v>173</v>
       </c>
-      <c r="V37" t="s">
-        <v>71</v>
-      </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-      <c r="X37" t="s">
-        <v>174</v>
-      </c>
       <c r="Y37" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z37" t="s">
         <v>73</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="AA37" t="s">
         <v>74</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>75</v>
       </c>
       <c r="AB37">
         <v>0</v>
@@ -5005,46 +5033,46 @@
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
+        <v>174</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38" t="s">
         <v>175</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38" t="s">
-        <v>176</v>
       </c>
       <c r="P38">
         <v>2</v>
@@ -5053,31 +5081,31 @@
         <v>20</v>
       </c>
       <c r="R38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T38">
         <v>2</v>
       </c>
       <c r="U38" t="s">
+        <v>176</v>
+      </c>
+      <c r="V38" t="s">
+        <v>70</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38" t="s">
         <v>177</v>
       </c>
-      <c r="V38" t="s">
-        <v>71</v>
-      </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-      <c r="X38" t="s">
-        <v>178</v>
-      </c>
       <c r="Y38" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z38" t="s">
         <v>73</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="AA38" t="s">
         <v>74</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>75</v>
       </c>
       <c r="AB38">
         <v>0</v>
@@ -5094,46 +5122,46 @@
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
+        <v>178</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39" t="s">
         <v>179</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39" t="s">
-        <v>180</v>
       </c>
       <c r="P39">
         <v>2</v>
@@ -5142,31 +5170,31 @@
         <v>20</v>
       </c>
       <c r="R39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T39">
         <v>2</v>
       </c>
       <c r="U39" t="s">
+        <v>180</v>
+      </c>
+      <c r="V39" t="s">
+        <v>70</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39" t="s">
         <v>181</v>
       </c>
-      <c r="V39" t="s">
-        <v>71</v>
-      </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-      <c r="X39" t="s">
-        <v>182</v>
-      </c>
       <c r="Y39" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z39" t="s">
         <v>73</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="AA39" t="s">
         <v>74</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>75</v>
       </c>
       <c r="AB39">
         <v>0</v>
@@ -5183,46 +5211,46 @@
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
+        <v>182</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40" t="s">
         <v>183</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-      <c r="O40" t="s">
-        <v>184</v>
       </c>
       <c r="P40">
         <v>2</v>
@@ -5231,31 +5259,31 @@
         <v>20</v>
       </c>
       <c r="R40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T40">
         <v>2</v>
       </c>
       <c r="U40" t="s">
+        <v>184</v>
+      </c>
+      <c r="V40" t="s">
+        <v>70</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40" t="s">
         <v>185</v>
       </c>
-      <c r="V40" t="s">
-        <v>71</v>
-      </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-      <c r="X40" t="s">
-        <v>186</v>
-      </c>
       <c r="Y40" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z40" t="s">
         <v>73</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="AA40" t="s">
         <v>74</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>75</v>
       </c>
       <c r="AB40">
         <v>0</v>
@@ -5272,46 +5300,46 @@
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
+        <v>186</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41" t="s">
         <v>187</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41" t="s">
-        <v>188</v>
       </c>
       <c r="P41">
         <v>2</v>
@@ -5320,31 +5348,31 @@
         <v>20</v>
       </c>
       <c r="R41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T41">
         <v>2</v>
       </c>
       <c r="U41" t="s">
+        <v>188</v>
+      </c>
+      <c r="V41" t="s">
+        <v>70</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41" t="s">
         <v>189</v>
       </c>
-      <c r="V41" t="s">
-        <v>71</v>
-      </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="X41" t="s">
-        <v>190</v>
-      </c>
       <c r="Y41" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z41" t="s">
         <v>73</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="AA41" t="s">
         <v>74</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>75</v>
       </c>
       <c r="AB41">
         <v>0</v>
@@ -5361,46 +5389,46 @@
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
+        <v>190</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42" t="s">
         <v>191</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="O42" t="s">
-        <v>192</v>
       </c>
       <c r="P42">
         <v>2</v>
@@ -5409,31 +5437,31 @@
         <v>20</v>
       </c>
       <c r="R42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T42">
         <v>2</v>
       </c>
       <c r="U42" t="s">
+        <v>192</v>
+      </c>
+      <c r="V42" t="s">
+        <v>70</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42" t="s">
         <v>193</v>
       </c>
-      <c r="V42" t="s">
-        <v>71</v>
-      </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42" t="s">
-        <v>194</v>
-      </c>
       <c r="Y42" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z42" t="s">
         <v>73</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="AA42" t="s">
         <v>74</v>
-      </c>
-      <c r="AA42" t="s">
-        <v>75</v>
       </c>
       <c r="AB42">
         <v>0</v>
@@ -5450,46 +5478,46 @@
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
+        <v>194</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43" t="s">
         <v>195</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-      <c r="O43" t="s">
-        <v>196</v>
       </c>
       <c r="P43">
         <v>2</v>
@@ -5498,31 +5526,31 @@
         <v>20</v>
       </c>
       <c r="R43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T43">
         <v>2</v>
       </c>
       <c r="U43" t="s">
+        <v>196</v>
+      </c>
+      <c r="V43" t="s">
+        <v>70</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43" t="s">
         <v>197</v>
       </c>
-      <c r="V43" t="s">
-        <v>71</v>
-      </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-      <c r="X43" t="s">
-        <v>198</v>
-      </c>
       <c r="Y43" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z43" t="s">
         <v>73</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="AA43" t="s">
         <v>74</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>75</v>
       </c>
       <c r="AB43">
         <v>0</v>
@@ -5539,46 +5567,46 @@
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
+        <v>198</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44" t="s">
         <v>199</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-      <c r="O44" t="s">
-        <v>200</v>
       </c>
       <c r="P44">
         <v>2</v>
@@ -5587,31 +5615,31 @@
         <v>20</v>
       </c>
       <c r="R44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T44">
         <v>2</v>
       </c>
       <c r="U44" t="s">
+        <v>200</v>
+      </c>
+      <c r="V44" t="s">
+        <v>70</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44" t="s">
         <v>201</v>
       </c>
-      <c r="V44" t="s">
-        <v>71</v>
-      </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-      <c r="X44" t="s">
-        <v>202</v>
-      </c>
       <c r="Y44" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z44" t="s">
         <v>73</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="AA44" t="s">
         <v>74</v>
-      </c>
-      <c r="AA44" t="s">
-        <v>75</v>
       </c>
       <c r="AB44">
         <v>0</v>
@@ -5628,46 +5656,46 @@
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
+        <v>202</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45" t="s">
         <v>203</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <v>0</v>
-      </c>
-      <c r="O45" t="s">
-        <v>204</v>
       </c>
       <c r="P45">
         <v>2</v>
@@ -5676,31 +5704,31 @@
         <v>20</v>
       </c>
       <c r="R45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T45">
         <v>2</v>
       </c>
       <c r="U45" t="s">
+        <v>204</v>
+      </c>
+      <c r="V45" t="s">
+        <v>70</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45" t="s">
         <v>205</v>
       </c>
-      <c r="V45" t="s">
-        <v>71</v>
-      </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-      <c r="X45" t="s">
-        <v>206</v>
-      </c>
       <c r="Y45" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z45" t="s">
         <v>73</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="AA45" t="s">
         <v>74</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>75</v>
       </c>
       <c r="AB45">
         <v>0</v>
@@ -5717,46 +5745,46 @@
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
+        <v>206</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46" t="s">
         <v>207</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-      <c r="O46" t="s">
-        <v>208</v>
       </c>
       <c r="P46">
         <v>2</v>
@@ -5765,31 +5793,31 @@
         <v>20</v>
       </c>
       <c r="R46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T46">
         <v>2</v>
       </c>
       <c r="U46" t="s">
+        <v>208</v>
+      </c>
+      <c r="V46" t="s">
+        <v>70</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46" t="s">
         <v>209</v>
       </c>
-      <c r="V46" t="s">
-        <v>71</v>
-      </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-      <c r="X46" t="s">
-        <v>210</v>
-      </c>
       <c r="Y46" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z46" t="s">
         <v>73</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="AA46" t="s">
         <v>74</v>
-      </c>
-      <c r="AA46" t="s">
-        <v>75</v>
       </c>
       <c r="AB46">
         <v>0</v>
@@ -5806,46 +5834,46 @@
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
+        <v>210</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47" t="s">
         <v>211</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-      <c r="O47" t="s">
-        <v>212</v>
       </c>
       <c r="P47">
         <v>2</v>
@@ -5854,31 +5882,31 @@
         <v>20</v>
       </c>
       <c r="R47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T47">
         <v>2</v>
       </c>
       <c r="U47" t="s">
+        <v>212</v>
+      </c>
+      <c r="V47" t="s">
+        <v>70</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47" t="s">
         <v>213</v>
       </c>
-      <c r="V47" t="s">
-        <v>71</v>
-      </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
-      <c r="X47" t="s">
-        <v>214</v>
-      </c>
       <c r="Y47" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z47" t="s">
         <v>73</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="AA47" t="s">
         <v>74</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>75</v>
       </c>
       <c r="AB47">
         <v>0</v>
@@ -5895,46 +5923,46 @@
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
+        <v>214</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48" t="s">
         <v>215</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-      <c r="O48" t="s">
-        <v>216</v>
       </c>
       <c r="P48">
         <v>2</v>
@@ -5943,31 +5971,31 @@
         <v>20</v>
       </c>
       <c r="R48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T48">
         <v>2</v>
       </c>
       <c r="U48" t="s">
+        <v>216</v>
+      </c>
+      <c r="V48" t="s">
+        <v>70</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48" t="s">
         <v>217</v>
       </c>
-      <c r="V48" t="s">
-        <v>71</v>
-      </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
-      <c r="X48" t="s">
-        <v>218</v>
-      </c>
       <c r="Y48" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z48" t="s">
         <v>73</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="AA48" t="s">
         <v>74</v>
-      </c>
-      <c r="AA48" t="s">
-        <v>75</v>
       </c>
       <c r="AB48">
         <v>0</v>
@@ -5984,46 +6012,46 @@
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
+        <v>218</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49" t="s">
         <v>219</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>0</v>
-      </c>
-      <c r="O49" t="s">
-        <v>220</v>
       </c>
       <c r="P49">
         <v>2</v>
@@ -6032,31 +6060,31 @@
         <v>20</v>
       </c>
       <c r="R49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T49">
         <v>2</v>
       </c>
       <c r="U49" t="s">
+        <v>220</v>
+      </c>
+      <c r="V49" t="s">
+        <v>70</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49" t="s">
         <v>221</v>
       </c>
-      <c r="V49" t="s">
-        <v>71</v>
-      </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-      <c r="X49" t="s">
-        <v>222</v>
-      </c>
       <c r="Y49" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z49" t="s">
         <v>73</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="AA49" t="s">
         <v>74</v>
-      </c>
-      <c r="AA49" t="s">
-        <v>75</v>
       </c>
       <c r="AB49">
         <v>0</v>
@@ -6073,46 +6101,46 @@
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
+        <v>222</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50" t="s">
         <v>223</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
-      <c r="O50" t="s">
-        <v>224</v>
       </c>
       <c r="P50">
         <v>2</v>
@@ -6121,31 +6149,31 @@
         <v>20</v>
       </c>
       <c r="R50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T50">
         <v>2</v>
       </c>
       <c r="U50" t="s">
+        <v>224</v>
+      </c>
+      <c r="V50" t="s">
+        <v>70</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50" t="s">
         <v>225</v>
       </c>
-      <c r="V50" t="s">
-        <v>71</v>
-      </c>
-      <c r="W50">
-        <v>0</v>
-      </c>
-      <c r="X50" t="s">
-        <v>226</v>
-      </c>
       <c r="Y50" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z50" t="s">
         <v>73</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="AA50" t="s">
         <v>74</v>
-      </c>
-      <c r="AA50" t="s">
-        <v>75</v>
       </c>
       <c r="AB50">
         <v>0</v>
@@ -6162,46 +6190,46 @@
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
+        <v>226</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51" t="s">
         <v>227</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
-      </c>
-      <c r="O51" t="s">
-        <v>228</v>
       </c>
       <c r="P51">
         <v>2</v>
@@ -6210,31 +6238,31 @@
         <v>20</v>
       </c>
       <c r="R51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T51">
         <v>2</v>
       </c>
       <c r="U51" t="s">
+        <v>228</v>
+      </c>
+      <c r="V51" t="s">
+        <v>70</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51" t="s">
         <v>229</v>
       </c>
-      <c r="V51" t="s">
-        <v>71</v>
-      </c>
-      <c r="W51">
-        <v>0</v>
-      </c>
-      <c r="X51" t="s">
-        <v>230</v>
-      </c>
       <c r="Y51" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z51" t="s">
         <v>73</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="AA51" t="s">
         <v>74</v>
-      </c>
-      <c r="AA51" t="s">
-        <v>75</v>
       </c>
       <c r="AB51">
         <v>0</v>
@@ -6251,46 +6279,46 @@
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
+        <v>230</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52" t="s">
         <v>231</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
-      <c r="O52" t="s">
-        <v>232</v>
       </c>
       <c r="P52">
         <v>2</v>
@@ -6299,31 +6327,31 @@
         <v>20</v>
       </c>
       <c r="R52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T52">
         <v>2</v>
       </c>
       <c r="U52" t="s">
+        <v>232</v>
+      </c>
+      <c r="V52" t="s">
+        <v>70</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52" t="s">
         <v>233</v>
       </c>
-      <c r="V52" t="s">
-        <v>71</v>
-      </c>
-      <c r="W52">
-        <v>0</v>
-      </c>
-      <c r="X52" t="s">
-        <v>234</v>
-      </c>
       <c r="Y52" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z52" t="s">
         <v>73</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="AA52" t="s">
         <v>74</v>
-      </c>
-      <c r="AA52" t="s">
-        <v>75</v>
       </c>
       <c r="AB52">
         <v>0</v>
@@ -6340,46 +6368,46 @@
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
+        <v>234</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53" t="s">
         <v>235</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
-      </c>
-      <c r="O53" t="s">
-        <v>236</v>
       </c>
       <c r="P53">
         <v>2</v>
@@ -6388,31 +6416,31 @@
         <v>20</v>
       </c>
       <c r="R53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T53">
         <v>2</v>
       </c>
       <c r="U53" t="s">
+        <v>236</v>
+      </c>
+      <c r="V53" t="s">
+        <v>70</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53" t="s">
         <v>237</v>
       </c>
-      <c r="V53" t="s">
-        <v>71</v>
-      </c>
-      <c r="W53">
-        <v>0</v>
-      </c>
-      <c r="X53" t="s">
-        <v>238</v>
-      </c>
       <c r="Y53" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z53" t="s">
         <v>73</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="AA53" t="s">
         <v>74</v>
-      </c>
-      <c r="AA53" t="s">
-        <v>75</v>
       </c>
       <c r="AB53">
         <v>0</v>
@@ -6429,46 +6457,46 @@
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
+        <v>238</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54" t="s">
         <v>239</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-      <c r="O54" t="s">
-        <v>240</v>
       </c>
       <c r="P54">
         <v>2</v>
@@ -6477,31 +6505,31 @@
         <v>20</v>
       </c>
       <c r="R54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T54">
         <v>2</v>
       </c>
       <c r="U54" t="s">
+        <v>240</v>
+      </c>
+      <c r="V54" t="s">
+        <v>70</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54" t="s">
         <v>241</v>
       </c>
-      <c r="V54" t="s">
-        <v>71</v>
-      </c>
-      <c r="W54">
-        <v>0</v>
-      </c>
-      <c r="X54" t="s">
-        <v>242</v>
-      </c>
       <c r="Y54" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z54" t="s">
         <v>73</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="AA54" t="s">
         <v>74</v>
-      </c>
-      <c r="AA54" t="s">
-        <v>75</v>
       </c>
       <c r="AB54">
         <v>0</v>
@@ -6518,46 +6546,46 @@
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
+        <v>242</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55" t="s">
         <v>243</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-      <c r="O55" t="s">
-        <v>244</v>
       </c>
       <c r="P55">
         <v>2</v>
@@ -6566,31 +6594,31 @@
         <v>20</v>
       </c>
       <c r="R55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T55">
         <v>2</v>
       </c>
       <c r="U55" t="s">
+        <v>244</v>
+      </c>
+      <c r="V55" t="s">
+        <v>70</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55" t="s">
         <v>245</v>
       </c>
-      <c r="V55" t="s">
-        <v>71</v>
-      </c>
-      <c r="W55">
-        <v>0</v>
-      </c>
-      <c r="X55" t="s">
-        <v>246</v>
-      </c>
       <c r="Y55" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z55" t="s">
         <v>73</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="AA55" t="s">
         <v>74</v>
-      </c>
-      <c r="AA55" t="s">
-        <v>75</v>
       </c>
       <c r="AB55">
         <v>0</v>
@@ -6607,46 +6635,46 @@
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
+        <v>246</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56" t="s">
         <v>247</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
-      <c r="O56" t="s">
-        <v>248</v>
       </c>
       <c r="P56">
         <v>2</v>
@@ -6655,31 +6683,31 @@
         <v>20</v>
       </c>
       <c r="R56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T56">
         <v>2</v>
       </c>
       <c r="U56" t="s">
+        <v>248</v>
+      </c>
+      <c r="V56" t="s">
+        <v>70</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56" t="s">
         <v>249</v>
       </c>
-      <c r="V56" t="s">
-        <v>71</v>
-      </c>
-      <c r="W56">
-        <v>0</v>
-      </c>
-      <c r="X56" t="s">
-        <v>250</v>
-      </c>
       <c r="Y56" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z56" t="s">
         <v>73</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="AA56" t="s">
         <v>74</v>
-      </c>
-      <c r="AA56" t="s">
-        <v>75</v>
       </c>
       <c r="AB56">
         <v>0</v>
@@ -6696,46 +6724,46 @@
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
+        <v>250</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57" t="s">
         <v>251</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
-      <c r="O57" t="s">
-        <v>252</v>
       </c>
       <c r="P57">
         <v>2</v>
@@ -6744,31 +6772,31 @@
         <v>20</v>
       </c>
       <c r="R57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T57">
         <v>2</v>
       </c>
       <c r="U57" t="s">
+        <v>252</v>
+      </c>
+      <c r="V57" t="s">
+        <v>70</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57" t="s">
         <v>253</v>
       </c>
-      <c r="V57" t="s">
-        <v>71</v>
-      </c>
-      <c r="W57">
-        <v>0</v>
-      </c>
-      <c r="X57" t="s">
-        <v>254</v>
-      </c>
       <c r="Y57" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z57" t="s">
         <v>73</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="AA57" t="s">
         <v>74</v>
-      </c>
-      <c r="AA57" t="s">
-        <v>75</v>
       </c>
       <c r="AB57">
         <v>0</v>
@@ -6785,46 +6813,46 @@
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
+        <v>254</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58" t="s">
         <v>255</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <v>0</v>
-      </c>
-      <c r="O58" t="s">
-        <v>256</v>
       </c>
       <c r="P58">
         <v>2</v>
@@ -6833,31 +6861,31 @@
         <v>20</v>
       </c>
       <c r="R58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T58">
         <v>2</v>
       </c>
       <c r="U58" t="s">
+        <v>256</v>
+      </c>
+      <c r="V58" t="s">
+        <v>70</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58" t="s">
         <v>257</v>
       </c>
-      <c r="V58" t="s">
-        <v>71</v>
-      </c>
-      <c r="W58">
-        <v>0</v>
-      </c>
-      <c r="X58" t="s">
-        <v>258</v>
-      </c>
       <c r="Y58" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z58" t="s">
         <v>73</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="AA58" t="s">
         <v>74</v>
-      </c>
-      <c r="AA58" t="s">
-        <v>75</v>
       </c>
       <c r="AB58">
         <v>0</v>
@@ -6874,46 +6902,46 @@
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
+        <v>258</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59" t="s">
         <v>259</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
-      <c r="N59">
-        <v>0</v>
-      </c>
-      <c r="O59" t="s">
-        <v>260</v>
       </c>
       <c r="P59">
         <v>2</v>
@@ -6922,31 +6950,31 @@
         <v>20</v>
       </c>
       <c r="R59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T59">
         <v>2</v>
       </c>
       <c r="U59" t="s">
+        <v>260</v>
+      </c>
+      <c r="V59" t="s">
+        <v>70</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59" t="s">
         <v>261</v>
       </c>
-      <c r="V59" t="s">
-        <v>71</v>
-      </c>
-      <c r="W59">
-        <v>0</v>
-      </c>
-      <c r="X59" t="s">
-        <v>262</v>
-      </c>
       <c r="Y59" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z59" t="s">
         <v>73</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="AA59" t="s">
         <v>74</v>
-      </c>
-      <c r="AA59" t="s">
-        <v>75</v>
       </c>
       <c r="AB59">
         <v>0</v>
@@ -6963,46 +6991,46 @@
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
+        <v>262</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60" t="s">
         <v>263</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
-      <c r="O60" t="s">
-        <v>264</v>
       </c>
       <c r="P60">
         <v>2</v>
@@ -7011,31 +7039,31 @@
         <v>20</v>
       </c>
       <c r="R60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T60">
         <v>2</v>
       </c>
       <c r="U60" t="s">
+        <v>264</v>
+      </c>
+      <c r="V60" t="s">
+        <v>70</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60" t="s">
         <v>265</v>
       </c>
-      <c r="V60" t="s">
-        <v>71</v>
-      </c>
-      <c r="W60">
-        <v>0</v>
-      </c>
-      <c r="X60" t="s">
-        <v>266</v>
-      </c>
       <c r="Y60" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z60" t="s">
         <v>73</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="AA60" t="s">
         <v>74</v>
-      </c>
-      <c r="AA60" t="s">
-        <v>75</v>
       </c>
       <c r="AB60">
         <v>0</v>
@@ -7052,46 +7080,46 @@
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
+        <v>266</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61" t="s">
         <v>267</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-      <c r="N61">
-        <v>0</v>
-      </c>
-      <c r="O61" t="s">
-        <v>268</v>
       </c>
       <c r="P61">
         <v>2</v>
@@ -7100,31 +7128,31 @@
         <v>20</v>
       </c>
       <c r="R61" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T61">
         <v>2</v>
       </c>
       <c r="U61" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W61">
         <v>0</v>
       </c>
       <c r="X61" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Y61" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z61" t="s">
         <v>73</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="AA61" t="s">
         <v>74</v>
-      </c>
-      <c r="AA61" t="s">
-        <v>75</v>
       </c>
       <c r="AB61">
         <v>0</v>
@@ -7141,46 +7169,46 @@
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
+        <v>269</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62" t="s">
         <v>270</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-      <c r="N62">
-        <v>0</v>
-      </c>
-      <c r="O62" t="s">
-        <v>271</v>
       </c>
       <c r="P62">
         <v>2</v>
@@ -7189,31 +7217,31 @@
         <v>20</v>
       </c>
       <c r="R62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T62">
         <v>2</v>
       </c>
       <c r="U62" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W62">
         <v>0</v>
       </c>
       <c r="X62" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y62" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z62" t="s">
         <v>73</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="AA62" t="s">
         <v>74</v>
-      </c>
-      <c r="AA62" t="s">
-        <v>75</v>
       </c>
       <c r="AB62">
         <v>0</v>
@@ -7230,46 +7258,46 @@
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
+        <v>272</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63" t="s">
         <v>273</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-      <c r="L63">
-        <v>0</v>
-      </c>
-      <c r="M63">
-        <v>0</v>
-      </c>
-      <c r="N63">
-        <v>0</v>
-      </c>
-      <c r="O63" t="s">
-        <v>274</v>
       </c>
       <c r="P63">
         <v>2</v>
@@ -7278,31 +7306,31 @@
         <v>20</v>
       </c>
       <c r="R63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T63">
         <v>2</v>
       </c>
       <c r="U63" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V63" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W63">
         <v>0</v>
       </c>
       <c r="X63" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y63" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z63" t="s">
         <v>73</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="AA63" t="s">
         <v>74</v>
-      </c>
-      <c r="AA63" t="s">
-        <v>75</v>
       </c>
       <c r="AB63">
         <v>0</v>
@@ -7319,46 +7347,46 @@
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
+        <v>275</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64" t="s">
         <v>276</v>
-      </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="M64">
-        <v>0</v>
-      </c>
-      <c r="N64">
-        <v>0</v>
-      </c>
-      <c r="O64" t="s">
-        <v>277</v>
       </c>
       <c r="P64">
         <v>2</v>
@@ -7367,31 +7395,31 @@
         <v>20</v>
       </c>
       <c r="R64" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T64">
         <v>2</v>
       </c>
       <c r="U64" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V64" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W64">
         <v>0</v>
       </c>
       <c r="X64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Y64" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z64" t="s">
         <v>73</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="AA64" t="s">
         <v>74</v>
-      </c>
-      <c r="AA64" t="s">
-        <v>75</v>
       </c>
       <c r="AB64">
         <v>0</v>
@@ -7408,46 +7436,46 @@
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
+        <v>278</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65" t="s">
         <v>279</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>0</v>
-      </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-      <c r="N65">
-        <v>0</v>
-      </c>
-      <c r="O65" t="s">
-        <v>280</v>
       </c>
       <c r="P65">
         <v>2</v>
@@ -7456,31 +7484,31 @@
         <v>20</v>
       </c>
       <c r="R65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T65">
         <v>2</v>
       </c>
       <c r="U65" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W65">
         <v>0</v>
       </c>
       <c r="X65" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Y65" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z65" t="s">
         <v>73</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="AA65" t="s">
         <v>74</v>
-      </c>
-      <c r="AA65" t="s">
-        <v>75</v>
       </c>
       <c r="AB65">
         <v>0</v>
@@ -7497,46 +7525,46 @@
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
+        <v>281</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66" t="s">
         <v>282</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66">
-        <v>0</v>
-      </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
-      <c r="N66">
-        <v>0</v>
-      </c>
-      <c r="O66" t="s">
-        <v>283</v>
       </c>
       <c r="P66">
         <v>2</v>
@@ -7545,31 +7573,31 @@
         <v>20</v>
       </c>
       <c r="R66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T66">
         <v>2</v>
       </c>
       <c r="U66" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W66">
         <v>0</v>
       </c>
       <c r="X66" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y66" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z66" t="s">
         <v>73</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="AA66" t="s">
         <v>74</v>
-      </c>
-      <c r="AA66" t="s">
-        <v>75</v>
       </c>
       <c r="AB66">
         <v>0</v>
@@ -7586,46 +7614,46 @@
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
+        <v>284</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67" t="s">
         <v>285</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="L67">
-        <v>0</v>
-      </c>
-      <c r="M67">
-        <v>0</v>
-      </c>
-      <c r="N67">
-        <v>0</v>
-      </c>
-      <c r="O67" t="s">
-        <v>286</v>
       </c>
       <c r="P67">
         <v>2</v>
@@ -7634,31 +7662,31 @@
         <v>20</v>
       </c>
       <c r="R67" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T67">
         <v>2</v>
       </c>
       <c r="U67" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W67">
         <v>0</v>
       </c>
       <c r="X67" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Y67" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z67" t="s">
         <v>73</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="AA67" t="s">
         <v>74</v>
-      </c>
-      <c r="AA67" t="s">
-        <v>75</v>
       </c>
       <c r="AB67">
         <v>0</v>
@@ -7675,46 +7703,46 @@
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
+        <v>287</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68" t="s">
         <v>288</v>
-      </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68">
-        <v>0</v>
-      </c>
-      <c r="M68">
-        <v>0</v>
-      </c>
-      <c r="N68">
-        <v>0</v>
-      </c>
-      <c r="O68" t="s">
-        <v>289</v>
       </c>
       <c r="P68">
         <v>2</v>
@@ -7723,31 +7751,31 @@
         <v>20</v>
       </c>
       <c r="R68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T68">
         <v>2</v>
       </c>
       <c r="U68" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W68">
         <v>0</v>
       </c>
       <c r="X68" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Y68" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z68" t="s">
         <v>73</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="AA68" t="s">
         <v>74</v>
-      </c>
-      <c r="AA68" t="s">
-        <v>75</v>
       </c>
       <c r="AB68">
         <v>0</v>
@@ -7764,46 +7792,46 @@
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
+        <v>290</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69" t="s">
         <v>291</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
-      <c r="L69">
-        <v>0</v>
-      </c>
-      <c r="M69">
-        <v>0</v>
-      </c>
-      <c r="N69">
-        <v>0</v>
-      </c>
-      <c r="O69" t="s">
-        <v>292</v>
       </c>
       <c r="P69">
         <v>2</v>
@@ -7812,31 +7840,31 @@
         <v>20</v>
       </c>
       <c r="R69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T69">
         <v>2</v>
       </c>
       <c r="U69" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W69">
         <v>0</v>
       </c>
       <c r="X69" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Y69" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z69" t="s">
         <v>73</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="AA69" t="s">
         <v>74</v>
-      </c>
-      <c r="AA69" t="s">
-        <v>75</v>
       </c>
       <c r="AB69">
         <v>0</v>
@@ -7853,46 +7881,46 @@
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
+        <v>293</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70" t="s">
         <v>294</v>
-      </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <v>0</v>
-      </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-      <c r="N70">
-        <v>0</v>
-      </c>
-      <c r="O70" t="s">
-        <v>295</v>
       </c>
       <c r="P70">
         <v>2</v>
@@ -7901,31 +7929,31 @@
         <v>20</v>
       </c>
       <c r="R70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T70">
         <v>2</v>
       </c>
       <c r="U70" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W70">
         <v>0</v>
       </c>
       <c r="X70" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Y70" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z70" t="s">
         <v>73</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="AA70" t="s">
         <v>74</v>
-      </c>
-      <c r="AA70" t="s">
-        <v>75</v>
       </c>
       <c r="AB70">
         <v>0</v>
@@ -7942,46 +7970,46 @@
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
+        <v>296</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71" t="s">
         <v>297</v>
-      </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
-      <c r="L71">
-        <v>0</v>
-      </c>
-      <c r="M71">
-        <v>0</v>
-      </c>
-      <c r="N71">
-        <v>0</v>
-      </c>
-      <c r="O71" t="s">
-        <v>298</v>
       </c>
       <c r="P71">
         <v>2</v>
@@ -7990,31 +8018,31 @@
         <v>20</v>
       </c>
       <c r="R71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T71">
         <v>2</v>
       </c>
       <c r="U71" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W71">
         <v>0</v>
       </c>
       <c r="X71" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Y71" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z71" t="s">
         <v>73</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="AA71" t="s">
         <v>74</v>
-      </c>
-      <c r="AA71" t="s">
-        <v>75</v>
       </c>
       <c r="AB71">
         <v>0</v>
@@ -8031,46 +8059,46 @@
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
+        <v>299</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72" t="s">
         <v>300</v>
-      </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
-      <c r="L72">
-        <v>0</v>
-      </c>
-      <c r="M72">
-        <v>0</v>
-      </c>
-      <c r="N72">
-        <v>0</v>
-      </c>
-      <c r="O72" t="s">
-        <v>301</v>
       </c>
       <c r="P72">
         <v>2</v>
@@ -8079,31 +8107,31 @@
         <v>20</v>
       </c>
       <c r="R72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T72">
         <v>2</v>
       </c>
       <c r="U72" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W72">
         <v>0</v>
       </c>
       <c r="X72" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Y72" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z72" t="s">
         <v>73</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="AA72" t="s">
         <v>74</v>
-      </c>
-      <c r="AA72" t="s">
-        <v>75</v>
       </c>
       <c r="AB72">
         <v>0</v>
@@ -8120,46 +8148,46 @@
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
+        <v>302</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73" t="s">
         <v>303</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-      <c r="L73">
-        <v>0</v>
-      </c>
-      <c r="M73">
-        <v>0</v>
-      </c>
-      <c r="N73">
-        <v>0</v>
-      </c>
-      <c r="O73" t="s">
-        <v>304</v>
       </c>
       <c r="P73">
         <v>2</v>
@@ -8168,31 +8196,31 @@
         <v>20</v>
       </c>
       <c r="R73" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T73">
         <v>2</v>
       </c>
       <c r="U73" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V73" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W73">
         <v>0</v>
       </c>
       <c r="X73" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Y73" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z73" t="s">
         <v>73</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="AA73" t="s">
         <v>74</v>
-      </c>
-      <c r="AA73" t="s">
-        <v>75</v>
       </c>
       <c r="AB73">
         <v>0</v>
@@ -8209,46 +8237,46 @@
     </row>
     <row r="74" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
+        <v>305</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74" t="s">
         <v>306</v>
-      </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
-      <c r="L74">
-        <v>0</v>
-      </c>
-      <c r="M74">
-        <v>0</v>
-      </c>
-      <c r="N74">
-        <v>0</v>
-      </c>
-      <c r="O74" t="s">
-        <v>307</v>
       </c>
       <c r="P74">
         <v>2</v>
@@ -8257,31 +8285,31 @@
         <v>20</v>
       </c>
       <c r="R74" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T74">
         <v>2</v>
       </c>
       <c r="U74" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V74" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W74">
         <v>0</v>
       </c>
       <c r="X74" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Y74" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z74" t="s">
         <v>73</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="AA74" t="s">
         <v>74</v>
-      </c>
-      <c r="AA74" t="s">
-        <v>75</v>
       </c>
       <c r="AB74">
         <v>0</v>
@@ -8298,46 +8326,46 @@
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
+        <v>308</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75" t="s">
         <v>309</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-      <c r="L75">
-        <v>0</v>
-      </c>
-      <c r="M75">
-        <v>0</v>
-      </c>
-      <c r="N75">
-        <v>0</v>
-      </c>
-      <c r="O75" t="s">
-        <v>310</v>
       </c>
       <c r="P75">
         <v>2</v>
@@ -8346,31 +8374,31 @@
         <v>20</v>
       </c>
       <c r="R75" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T75">
         <v>2</v>
       </c>
       <c r="U75" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V75" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W75">
         <v>0</v>
       </c>
       <c r="X75" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Y75" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z75" t="s">
         <v>73</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="AA75" t="s">
         <v>74</v>
-      </c>
-      <c r="AA75" t="s">
-        <v>75</v>
       </c>
       <c r="AB75">
         <v>0</v>
@@ -8387,46 +8415,46 @@
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
+        <v>311</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76" t="s">
         <v>312</v>
-      </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76">
-        <v>0</v>
-      </c>
-      <c r="L76">
-        <v>0</v>
-      </c>
-      <c r="M76">
-        <v>0</v>
-      </c>
-      <c r="N76">
-        <v>0</v>
-      </c>
-      <c r="O76" t="s">
-        <v>313</v>
       </c>
       <c r="P76">
         <v>2</v>
@@ -8435,31 +8463,31 @@
         <v>20</v>
       </c>
       <c r="R76" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T76">
         <v>2</v>
       </c>
       <c r="U76" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V76" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W76">
         <v>0</v>
       </c>
       <c r="X76" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Y76" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z76" t="s">
         <v>73</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="AA76" t="s">
         <v>74</v>
-      </c>
-      <c r="AA76" t="s">
-        <v>75</v>
       </c>
       <c r="AB76">
         <v>0</v>
@@ -8476,46 +8504,46 @@
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
+        <v>314</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77" t="s">
         <v>315</v>
-      </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
-      <c r="L77">
-        <v>0</v>
-      </c>
-      <c r="M77">
-        <v>0</v>
-      </c>
-      <c r="N77">
-        <v>0</v>
-      </c>
-      <c r="O77" t="s">
-        <v>316</v>
       </c>
       <c r="P77">
         <v>2</v>
@@ -8524,31 +8552,31 @@
         <v>20</v>
       </c>
       <c r="R77" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T77">
         <v>2</v>
       </c>
       <c r="U77" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V77" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W77">
         <v>0</v>
       </c>
       <c r="X77" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Y77" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z77" t="s">
         <v>73</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="AA77" t="s">
         <v>74</v>
-      </c>
-      <c r="AA77" t="s">
-        <v>75</v>
       </c>
       <c r="AB77">
         <v>0</v>
@@ -8565,46 +8593,46 @@
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
+        <v>317</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78" t="s">
         <v>318</v>
-      </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-      <c r="K78">
-        <v>0</v>
-      </c>
-      <c r="L78">
-        <v>0</v>
-      </c>
-      <c r="M78">
-        <v>0</v>
-      </c>
-      <c r="N78">
-        <v>0</v>
-      </c>
-      <c r="O78" t="s">
-        <v>319</v>
       </c>
       <c r="P78">
         <v>2</v>
@@ -8613,31 +8641,31 @@
         <v>20</v>
       </c>
       <c r="R78" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T78">
         <v>2</v>
       </c>
       <c r="U78" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V78" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W78">
         <v>0</v>
       </c>
       <c r="X78" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Y78" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z78" t="s">
         <v>73</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="AA78" t="s">
         <v>74</v>
-      </c>
-      <c r="AA78" t="s">
-        <v>75</v>
       </c>
       <c r="AB78">
         <v>0</v>
@@ -8654,46 +8682,46 @@
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
+        <v>320</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79" t="s">
         <v>321</v>
-      </c>
-      <c r="C79">
-        <v>0</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-      <c r="K79">
-        <v>0</v>
-      </c>
-      <c r="L79">
-        <v>0</v>
-      </c>
-      <c r="M79">
-        <v>0</v>
-      </c>
-      <c r="N79">
-        <v>0</v>
-      </c>
-      <c r="O79" t="s">
-        <v>322</v>
       </c>
       <c r="P79">
         <v>2</v>
@@ -8702,31 +8730,31 @@
         <v>20</v>
       </c>
       <c r="R79" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T79">
         <v>2</v>
       </c>
       <c r="U79" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V79" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W79">
         <v>0</v>
       </c>
       <c r="X79" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Y79" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z79" t="s">
         <v>73</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="AA79" t="s">
         <v>74</v>
-      </c>
-      <c r="AA79" t="s">
-        <v>75</v>
       </c>
       <c r="AB79">
         <v>0</v>
@@ -8743,46 +8771,46 @@
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
+        <v>323</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80" t="s">
         <v>324</v>
-      </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
-      <c r="K80">
-        <v>0</v>
-      </c>
-      <c r="L80">
-        <v>0</v>
-      </c>
-      <c r="M80">
-        <v>0</v>
-      </c>
-      <c r="N80">
-        <v>0</v>
-      </c>
-      <c r="O80" t="s">
-        <v>325</v>
       </c>
       <c r="P80">
         <v>2</v>
@@ -8791,31 +8819,31 @@
         <v>20</v>
       </c>
       <c r="R80" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T80">
         <v>2</v>
       </c>
       <c r="U80" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V80" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W80">
         <v>0</v>
       </c>
       <c r="X80" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Y80" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z80" t="s">
         <v>73</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="AA80" t="s">
         <v>74</v>
-      </c>
-      <c r="AA80" t="s">
-        <v>75</v>
       </c>
       <c r="AB80">
         <v>0</v>
@@ -8832,46 +8860,46 @@
     </row>
     <row r="81" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
+        <v>326</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81" t="s">
         <v>327</v>
-      </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-      <c r="K81">
-        <v>0</v>
-      </c>
-      <c r="L81">
-        <v>0</v>
-      </c>
-      <c r="M81">
-        <v>0</v>
-      </c>
-      <c r="N81">
-        <v>0</v>
-      </c>
-      <c r="O81" t="s">
-        <v>328</v>
       </c>
       <c r="P81">
         <v>2</v>
@@ -8880,31 +8908,31 @@
         <v>20</v>
       </c>
       <c r="R81" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T81">
         <v>2</v>
       </c>
       <c r="U81" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V81" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W81">
         <v>0</v>
       </c>
       <c r="X81" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Y81" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z81" t="s">
         <v>73</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="AA81" t="s">
         <v>74</v>
-      </c>
-      <c r="AA81" t="s">
-        <v>75</v>
       </c>
       <c r="AB81">
         <v>0</v>
@@ -8921,46 +8949,46 @@
     </row>
     <row r="82" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
+        <v>329</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82" t="s">
         <v>330</v>
-      </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-      <c r="K82">
-        <v>0</v>
-      </c>
-      <c r="L82">
-        <v>0</v>
-      </c>
-      <c r="M82">
-        <v>0</v>
-      </c>
-      <c r="N82">
-        <v>0</v>
-      </c>
-      <c r="O82" t="s">
-        <v>331</v>
       </c>
       <c r="P82">
         <v>2</v>
@@ -8969,31 +8997,31 @@
         <v>20</v>
       </c>
       <c r="R82" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T82">
         <v>2</v>
       </c>
       <c r="U82" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V82" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W82">
         <v>0</v>
       </c>
       <c r="X82" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Y82" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z82" t="s">
         <v>73</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="AA82" t="s">
         <v>74</v>
-      </c>
-      <c r="AA82" t="s">
-        <v>75</v>
       </c>
       <c r="AB82">
         <v>0</v>
@@ -9010,46 +9038,46 @@
     </row>
     <row r="83" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
+        <v>332</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83" t="s">
         <v>333</v>
-      </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-      <c r="K83">
-        <v>0</v>
-      </c>
-      <c r="L83">
-        <v>0</v>
-      </c>
-      <c r="M83">
-        <v>0</v>
-      </c>
-      <c r="N83">
-        <v>0</v>
-      </c>
-      <c r="O83" t="s">
-        <v>334</v>
       </c>
       <c r="P83">
         <v>2</v>
@@ -9058,31 +9086,31 @@
         <v>20</v>
       </c>
       <c r="R83" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T83">
         <v>2</v>
       </c>
       <c r="U83" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V83" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W83">
         <v>0</v>
       </c>
       <c r="X83" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Y83" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z83" t="s">
         <v>73</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="AA83" t="s">
         <v>74</v>
-      </c>
-      <c r="AA83" t="s">
-        <v>75</v>
       </c>
       <c r="AB83">
         <v>0</v>
@@ -9099,46 +9127,46 @@
     </row>
     <row r="84" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
+        <v>335</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84" t="s">
         <v>336</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-      <c r="K84">
-        <v>0</v>
-      </c>
-      <c r="L84">
-        <v>0</v>
-      </c>
-      <c r="M84">
-        <v>0</v>
-      </c>
-      <c r="N84">
-        <v>0</v>
-      </c>
-      <c r="O84" t="s">
-        <v>337</v>
       </c>
       <c r="P84">
         <v>2</v>
@@ -9147,31 +9175,31 @@
         <v>20</v>
       </c>
       <c r="R84" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T84">
         <v>2</v>
       </c>
       <c r="U84" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V84" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W84">
         <v>0</v>
       </c>
       <c r="X84" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Y84" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z84" t="s">
         <v>73</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="AA84" t="s">
         <v>74</v>
-      </c>
-      <c r="AA84" t="s">
-        <v>75</v>
       </c>
       <c r="AB84">
         <v>0</v>
@@ -9188,46 +9216,46 @@
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
+        <v>338</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85" t="s">
         <v>339</v>
-      </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
-      <c r="K85">
-        <v>0</v>
-      </c>
-      <c r="L85">
-        <v>0</v>
-      </c>
-      <c r="M85">
-        <v>0</v>
-      </c>
-      <c r="N85">
-        <v>0</v>
-      </c>
-      <c r="O85" t="s">
-        <v>340</v>
       </c>
       <c r="P85">
         <v>2</v>
@@ -9236,31 +9264,31 @@
         <v>20</v>
       </c>
       <c r="R85" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T85">
         <v>2</v>
       </c>
       <c r="U85" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W85">
         <v>0</v>
       </c>
       <c r="X85" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Y85" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z85" t="s">
         <v>73</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="AA85" t="s">
         <v>74</v>
-      </c>
-      <c r="AA85" t="s">
-        <v>75</v>
       </c>
       <c r="AB85">
         <v>0</v>
@@ -9277,46 +9305,46 @@
     </row>
     <row r="86" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
+        <v>341</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86" t="s">
         <v>342</v>
-      </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <v>0</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86">
-        <v>0</v>
-      </c>
-      <c r="K86">
-        <v>0</v>
-      </c>
-      <c r="L86">
-        <v>0</v>
-      </c>
-      <c r="M86">
-        <v>0</v>
-      </c>
-      <c r="N86">
-        <v>0</v>
-      </c>
-      <c r="O86" t="s">
-        <v>343</v>
       </c>
       <c r="P86">
         <v>2</v>
@@ -9325,31 +9353,31 @@
         <v>20</v>
       </c>
       <c r="R86" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T86">
         <v>2</v>
       </c>
       <c r="U86" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V86" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W86">
         <v>0</v>
       </c>
       <c r="X86" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Y86" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z86" t="s">
         <v>73</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="AA86" t="s">
         <v>74</v>
-      </c>
-      <c r="AA86" t="s">
-        <v>75</v>
       </c>
       <c r="AB86">
         <v>0</v>
@@ -9367,7 +9395,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -9376,7 +9404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -9390,91 +9418,91 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1" t="s">
         <v>345</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>346</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>347</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>348</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>349</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>350</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>351</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>352</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>353</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>354</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>355</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>356</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>357</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>358</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>359</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>360</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>361</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>362</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>363</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>364</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>365</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>366</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>367</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>368</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>369</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>370</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>371</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>372</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.15">
@@ -9571,7 +9599,7 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -9663,7 +9691,7 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -9755,7 +9783,7 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
@@ -9847,7 +9875,7 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" t="b">
         <v>0</v>
@@ -9939,7 +9967,7 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" t="b">
         <v>0</v>
@@ -10031,94 +10059,94 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C8" t="s">
         <v>374</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>375</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>376</v>
       </c>
-      <c r="E8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>377</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>378</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>379</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>380</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>381</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>382</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>383</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>384</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>385</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>386</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>387</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>388</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>389</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>390</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>391</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>392</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>393</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>394</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>395</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>396</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>397</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>398</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>399</v>
       </c>
     </row>
   </sheetData>
